--- a/workingfolder/OtherData/UCSVestM.xlsx
+++ b/workingfolder/OtherData/UCSVestM.xlsx
@@ -13,7 +13,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inf1y_CPIAU</t>
+  </si>
+  <si>
+    <t>sd_eps</t>
+  </si>
+  <si>
+    <t>sd_eta</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inf1y_CPIAU</t>
+  </si>
+  <si>
+    <t>sd_eps</t>
+  </si>
+  <si>
+    <t>sd_eta</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inf1y_CPIAU</t>
+  </si>
+  <si>
+    <t>sd_eps</t>
+  </si>
+  <si>
+    <t>sd_eta</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -110,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E318"/>
+  <dimension ref="A1:E340"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
@@ -122,5408 +167,5782 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="2">
         <v>34700</v>
       </c>
       <c r="B2" s="0">
         <v>2.8708112239837651</v>
       </c>
       <c r="C2" s="0">
-        <v>0.10801125979679332</v>
+        <v>0.10780338487511529</v>
       </c>
       <c r="D2" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E2" s="0">
-        <v>2.888169419400445</v>
+        <v>2.8882223814081671</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="2">
         <v>34731</v>
       </c>
       <c r="B3" s="0">
         <v>2.8629837036132808</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10956849746551078</v>
+        <v>0.10857509083486591</v>
       </c>
       <c r="D3" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>2.8805073548923015</v>
+        <v>2.8803043323388775</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12">
+      <c r="A4" s="2">
         <v>34759</v>
       </c>
       <c r="B4" s="0">
         <v>2.7872133255004878</v>
       </c>
       <c r="C4" s="0">
-        <v>0.11108185785715267</v>
+        <v>0.11068733349612446</v>
       </c>
       <c r="D4" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.10185020945545145</v>
       </c>
       <c r="E4" s="0">
-        <v>2.8863248491612064</v>
+        <v>2.8902558258564475</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="2">
         <v>34790</v>
       </c>
       <c r="B5" s="0">
         <v>3.1250042915344238</v>
       </c>
       <c r="C5" s="0">
-        <v>0.11316107140743067</v>
+        <v>0.1130801351733694</v>
       </c>
       <c r="D5" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.10232743775856043</v>
       </c>
       <c r="E5" s="0">
-        <v>3.0268722388009701</v>
+        <v>3.0247840485344901</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="2">
         <v>34820</v>
       </c>
       <c r="B6" s="0">
         <v>3.1186482906341548</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11399400727066966</v>
+        <v>0.11347092196578719</v>
       </c>
       <c r="D6" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.10159809930420158</v>
       </c>
       <c r="E6" s="0">
-        <v>3.0416867895522541</v>
+        <v>3.0402677447165098</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12">
+      <c r="A7" s="2">
         <v>34851</v>
       </c>
       <c r="B7" s="0">
         <v>3.042596578598022</v>
       </c>
       <c r="C7" s="0">
-        <v>0.1153172259495327</v>
+        <v>0.11529607508885203</v>
       </c>
       <c r="D7" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.10155357864034423</v>
       </c>
       <c r="E7" s="0">
-        <v>2.9752970570998039</v>
+        <v>2.9755123147112519</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12">
+      <c r="A8" s="2">
         <v>34881</v>
       </c>
       <c r="B8" s="0">
         <v>2.8301970958709721</v>
       </c>
       <c r="C8" s="0">
-        <v>0.11687589365494737</v>
+        <v>0.11645469567462848</v>
       </c>
       <c r="D8" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.10092683606365113</v>
       </c>
       <c r="E8" s="0">
-        <v>2.8287726874204115</v>
+        <v>2.8300004002393173</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12">
+      <c r="A9" s="2">
         <v>34912</v>
       </c>
       <c r="B9" s="0">
         <v>2.6174454689025879</v>
       </c>
       <c r="C9" s="0">
-        <v>0.11722298567822745</v>
+        <v>0.11742158745715899</v>
       </c>
       <c r="D9" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.10034832541113201</v>
       </c>
       <c r="E9" s="0">
-        <v>2.6889884580267922</v>
+        <v>2.6888215281553252</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="2">
         <v>34943</v>
       </c>
       <c r="B10" s="0">
         <v>2.545212984085083</v>
       </c>
       <c r="C10" s="0">
-        <v>0.11605747646685544</v>
+        <v>0.1163466978973014</v>
       </c>
       <c r="D10" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>2.6282580941058682</v>
+        <v>2.6299654474360903</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12">
+      <c r="A11" s="2">
         <v>34973</v>
       </c>
       <c r="B11" s="0">
         <v>2.7443146705627441</v>
       </c>
       <c r="C11" s="0">
-        <v>0.11509536189030103</v>
+        <v>0.11538853509982558</v>
       </c>
       <c r="D11" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>2.678574592362426</v>
+        <v>2.6782976863515158</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12">
+      <c r="A12" s="2">
         <v>35004</v>
       </c>
       <c r="B12" s="0">
         <v>2.6034672260284419</v>
       </c>
       <c r="C12" s="0">
-        <v>0.11454068498819808</v>
+        <v>0.11488737652249613</v>
       </c>
       <c r="D12" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>2.6338811291351716</v>
+        <v>2.6333635992559348</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12">
+      <c r="A13" s="2">
         <v>35034</v>
       </c>
       <c r="B13" s="0">
         <v>2.53163743019104</v>
       </c>
       <c r="C13" s="0">
-        <v>0.1138351306201055</v>
+        <v>0.11510438124672463</v>
       </c>
       <c r="D13" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E13" s="0">
-        <v>2.621946270286291</v>
+        <v>2.6217336280148595</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12">
+      <c r="A14" s="2">
         <v>35065</v>
       </c>
       <c r="B14" s="0">
         <v>2.7906956672668461</v>
       </c>
       <c r="C14" s="0">
-        <v>0.11384413914013658</v>
+        <v>0.11501310165301601</v>
       </c>
       <c r="D14" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>2.7275889132438369</v>
+        <v>2.7270903604835626</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12">
+      <c r="A15" s="2">
         <v>35096</v>
       </c>
       <c r="B15" s="0">
         <v>2.717035293579102</v>
       </c>
       <c r="C15" s="0">
-        <v>0.1143375733390404</v>
+        <v>0.11573701955292659</v>
       </c>
       <c r="D15" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>2.7447774933500355</v>
+        <v>2.7467310815316259</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12">
+      <c r="A16" s="2">
         <v>35125</v>
       </c>
       <c r="B16" s="0">
         <v>2.8439173698425289</v>
       </c>
       <c r="C16" s="0">
-        <v>0.11481434763473702</v>
+        <v>0.11620194306379016</v>
       </c>
       <c r="D16" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E16" s="0">
-        <v>2.8096659386799345</v>
+        <v>2.8085938037543019</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12">
+      <c r="A17" s="2">
         <v>35156</v>
       </c>
       <c r="B17" s="0">
         <v>2.8326764106750488</v>
       </c>
       <c r="C17" s="0">
-        <v>0.11652888293108946</v>
+        <v>0.11664023419075115</v>
       </c>
       <c r="D17" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>2.8244654932775219</v>
+        <v>2.8221742780947467</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12">
+      <c r="A18" s="2">
         <v>35186</v>
       </c>
       <c r="B18" s="0">
         <v>2.827079296112061</v>
       </c>
       <c r="C18" s="0">
-        <v>0.11765976693548846</v>
+        <v>0.11775251820648103</v>
       </c>
       <c r="D18" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>2.8314743131080329</v>
+        <v>2.8301982500883329</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12">
+      <c r="A19" s="2">
         <v>35217</v>
       </c>
       <c r="B19" s="0">
         <v>2.8215243816375728</v>
       </c>
       <c r="C19" s="0">
-        <v>0.1201432282845934</v>
+        <v>0.12078844109006412</v>
       </c>
       <c r="D19" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E19" s="0">
-        <v>2.8386208964364661</v>
+        <v>2.8391996073407895</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12">
+      <c r="A20" s="2">
         <v>35247</v>
       </c>
       <c r="B20" s="0">
         <v>2.88335108757019</v>
       </c>
       <c r="C20" s="0">
-        <v>0.12280289480681766</v>
+        <v>0.12368559962654892</v>
       </c>
       <c r="D20" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E20" s="0">
-        <v>2.8712617301213501</v>
+        <v>2.8689251644215354</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12">
+      <c r="A21" s="2">
         <v>35278</v>
       </c>
       <c r="B21" s="0">
         <v>2.8122978210449219</v>
       </c>
       <c r="C21" s="0">
-        <v>0.12653607166259809</v>
+        <v>0.12784677081907497</v>
       </c>
       <c r="D21" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>2.8775175986310919</v>
+        <v>2.8798840917772459</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12">
+      <c r="A22" s="2">
         <v>35309</v>
       </c>
       <c r="B22" s="0">
         <v>3.0045661926269531</v>
       </c>
       <c r="C22" s="0">
-        <v>0.1312604354194408</v>
+        <v>0.1325197087164999</v>
       </c>
       <c r="D22" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E22" s="0">
-        <v>2.9912115602575584</v>
+        <v>2.9890414180663591</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12">
+      <c r="A23" s="2">
         <v>35339</v>
       </c>
       <c r="B23" s="0">
         <v>3.061887264251709</v>
       </c>
       <c r="C23" s="0">
-        <v>0.13521101159134785</v>
+        <v>0.13672764576889684</v>
       </c>
       <c r="D23" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E23" s="0">
-        <v>3.0786530741000377</v>
+        <v>3.0769848000906639</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12">
+      <c r="A24" s="2">
         <v>35370</v>
       </c>
       <c r="B24" s="0">
         <v>3.253090381622314</v>
       </c>
       <c r="C24" s="0">
-        <v>0.14046899304153138</v>
+        <v>0.14182596384174018</v>
       </c>
       <c r="D24" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E24" s="0">
-        <v>3.201719759793145</v>
+        <v>3.2007240431238517</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12">
+      <c r="A25" s="2">
         <v>35400</v>
       </c>
       <c r="B25" s="0">
         <v>3.378825426101685</v>
       </c>
       <c r="C25" s="0">
-        <v>0.14512635559448489</v>
+        <v>0.14591939679024363</v>
       </c>
       <c r="D25" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E25" s="0">
-        <v>3.2515812240571709</v>
+        <v>3.2496554728538674</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12">
+      <c r="A26" s="2">
         <v>35431</v>
       </c>
       <c r="B26" s="0">
         <v>3.03813648223877</v>
       </c>
       <c r="C26" s="0">
-        <v>0.15133729616294944</v>
+        <v>0.15079195000462237</v>
       </c>
       <c r="D26" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E26" s="0">
-        <v>3.0694509724792112</v>
+        <v>3.0733432471378848</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12">
+      <c r="A27" s="2">
         <v>35462</v>
       </c>
       <c r="B27" s="0">
         <v>3.032256126403809</v>
       </c>
       <c r="C27" s="0">
-        <v>0.15506817771044226</v>
+        <v>0.15468323302090725</v>
       </c>
       <c r="D27" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E27" s="0">
-        <v>2.9728061171816909</v>
+        <v>2.9709825408131891</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12">
+      <c r="A28" s="2">
         <v>35490</v>
       </c>
       <c r="B28" s="0">
         <v>2.765275239944458</v>
       </c>
       <c r="C28" s="0">
-        <v>0.15943080020931544</v>
+        <v>0.15959394704775068</v>
       </c>
       <c r="D28" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E28" s="0">
-        <v>2.7482657167735196</v>
+        <v>2.7458490220554648</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12">
+      <c r="A29" s="2">
         <v>35521</v>
       </c>
       <c r="B29" s="0">
         <v>2.4343290328979492</v>
       </c>
       <c r="C29" s="0">
-        <v>0.16069700996986924</v>
+        <v>0.16124751353757619</v>
       </c>
       <c r="D29" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E29" s="0">
-        <v>2.4780068360094796</v>
+        <v>2.4782741811103866</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12">
+      <c r="A30" s="2">
         <v>35551</v>
       </c>
       <c r="B30" s="0">
         <v>2.2378518581390381</v>
       </c>
       <c r="C30" s="0">
-        <v>0.15843910109896889</v>
+        <v>0.15803401569773265</v>
       </c>
       <c r="D30" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E30" s="0">
-        <v>2.2990600771391714</v>
+        <v>2.301041838312706</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12">
+      <c r="A31" s="2">
         <v>35582</v>
       </c>
       <c r="B31" s="0">
         <v>2.233567476272583</v>
       </c>
       <c r="C31" s="0">
-        <v>0.15537702539636772</v>
+        <v>0.15532206473472882</v>
       </c>
       <c r="D31" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E31" s="0">
-        <v>2.2451816353077954</v>
+        <v>2.2428021638007531</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12">
+      <c r="A32" s="2">
         <v>35612</v>
       </c>
       <c r="B32" s="0">
         <v>2.165601253509521</v>
       </c>
       <c r="C32" s="0">
-        <v>0.15368930112099033</v>
+        <v>0.15263931990304502</v>
       </c>
       <c r="D32" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E32" s="0">
-        <v>2.2025014211398539</v>
+        <v>2.2041894505094879</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12">
+      <c r="A33" s="2">
         <v>35643</v>
       </c>
       <c r="B33" s="0">
         <v>2.290080308914185</v>
       </c>
       <c r="C33" s="0">
-        <v>0.1518899365866988</v>
+        <v>0.15170169073831863</v>
       </c>
       <c r="D33" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E33" s="0">
-        <v>2.2419041319336599</v>
+        <v>2.238979238892342</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12">
+      <c r="A34" s="2">
         <v>35674</v>
       </c>
       <c r="B34" s="0">
         <v>2.219403982162476</v>
       </c>
       <c r="C34" s="0">
-        <v>0.15194499710005538</v>
+        <v>0.15054421381636734</v>
       </c>
       <c r="D34" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E34" s="0">
-        <v>2.1848733235809119</v>
+        <v>2.1821715183084054</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12">
+      <c r="A35" s="2">
         <v>35704</v>
       </c>
       <c r="B35" s="0">
         <v>2.085969209671021</v>
       </c>
       <c r="C35" s="0">
-        <v>0.15331099332445458</v>
+        <v>0.1521305332648076</v>
       </c>
       <c r="D35" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E35" s="0">
-        <v>2.0574680872495925</v>
+        <v>2.059003355543882</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12">
+      <c r="A36" s="2">
         <v>35735</v>
       </c>
       <c r="B36" s="0">
         <v>1.890359163284302</v>
       </c>
       <c r="C36" s="0">
-        <v>0.1543629578558606</v>
+        <v>0.15311403895395145</v>
       </c>
       <c r="D36" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E36" s="0">
-        <v>1.8900613703131885</v>
+        <v>1.8920979105928128</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12">
+      <c r="A37" s="2">
         <v>35765</v>
       </c>
       <c r="B37" s="0">
         <v>1.697043895721436</v>
       </c>
       <c r="C37" s="0">
-        <v>0.15293313004030767</v>
+        <v>0.15208915183323518</v>
       </c>
       <c r="D37" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E37" s="0">
-        <v>1.7255467429330005</v>
+        <v>1.7288794732054189</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12">
+      <c r="A38" s="2">
         <v>35796</v>
       </c>
       <c r="B38" s="0">
         <v>1.631120562553406</v>
       </c>
       <c r="C38" s="0">
-        <v>0.1510708745746463</v>
+        <v>0.15123405078275909</v>
       </c>
       <c r="D38" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E38" s="0">
-        <v>1.617978542753105</v>
+        <v>1.6218906608418782</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12">
+      <c r="A39" s="2">
         <v>35827</v>
       </c>
       <c r="B39" s="0">
         <v>1.4402023553848271</v>
       </c>
       <c r="C39" s="0">
-        <v>0.14886420672101977</v>
+        <v>0.1485243599734975</v>
       </c>
       <c r="D39" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E39" s="0">
-        <v>1.4880838122313165</v>
+        <v>1.4884065085046618</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12">
+      <c r="A40" s="2">
         <v>35855</v>
       </c>
       <c r="B40" s="0">
         <v>1.376718997955322</v>
       </c>
       <c r="C40" s="0">
-        <v>0.14690616568185139</v>
+        <v>0.1465653691135318</v>
       </c>
       <c r="D40" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E40" s="0">
-        <v>1.4369697355361915</v>
+        <v>1.43846640129845</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12">
+      <c r="A41" s="2">
         <v>35886</v>
       </c>
       <c r="B41" s="0">
         <v>1.438400983810425</v>
       </c>
       <c r="C41" s="0">
-        <v>0.14465835369504756</v>
+        <v>0.14417080225493584</v>
       </c>
       <c r="D41" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E41" s="0">
-        <v>1.4852065757548105</v>
+        <v>1.4893283057775974</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12">
+      <c r="A42" s="2">
         <v>35916</v>
       </c>
       <c r="B42" s="0">
         <v>1.6885629892349241</v>
       </c>
       <c r="C42" s="0">
-        <v>0.14353267574137035</v>
+        <v>0.14367640276891597</v>
       </c>
       <c r="D42" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E42" s="0">
-        <v>1.6211287636928451</v>
+        <v>1.6218235059363995</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12">
+      <c r="A43" s="2">
         <v>35947</v>
       </c>
       <c r="B43" s="0">
         <v>1.62297511100769</v>
       </c>
       <c r="C43" s="0">
-        <v>0.14176784237632067</v>
+        <v>0.14150318972845305</v>
       </c>
       <c r="D43" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E43" s="0">
-        <v>1.6339952995989186</v>
+        <v>1.6315313051876372</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12">
+      <c r="A44" s="2">
         <v>35977</v>
       </c>
       <c r="B44" s="0">
         <v>1.745637893676758</v>
       </c>
       <c r="C44" s="0">
-        <v>0.14202777158840832</v>
+        <v>0.14099860659994595</v>
       </c>
       <c r="D44" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E44" s="0">
-        <v>1.6744669115704824</v>
+        <v>1.6735397146260447</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12">
+      <c r="A45" s="2">
         <v>36008</v>
       </c>
       <c r="B45" s="0">
         <v>1.6169097423553469</v>
       </c>
       <c r="C45" s="0">
-        <v>0.14290292526263781</v>
+        <v>0.14140388318682234</v>
       </c>
       <c r="D45" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E45" s="0">
-        <v>1.5994404532698958</v>
+        <v>1.5979191379914677</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12">
+      <c r="A46" s="2">
         <v>36039</v>
       </c>
       <c r="B46" s="0">
         <v>1.4268009662628169</v>
       </c>
       <c r="C46" s="0">
-        <v>0.14340835756076356</v>
+        <v>0.14190917564974781</v>
       </c>
       <c r="D46" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E46" s="0">
-        <v>1.4930813121391076</v>
+        <v>1.49577313966676</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12">
+      <c r="A47" s="2">
         <v>36069</v>
       </c>
       <c r="B47" s="0">
         <v>1.4860643148422239</v>
       </c>
       <c r="C47" s="0">
-        <v>0.14436591294846371</v>
+        <v>0.14264402141893628</v>
       </c>
       <c r="D47" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.1001141422264598</v>
       </c>
       <c r="E47" s="0">
-        <v>1.4973761453819474</v>
+        <v>1.501495270805755</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="12">
+      <c r="A48" s="2">
         <v>36100</v>
       </c>
       <c r="B48" s="0">
         <v>1.4842357635498049</v>
       </c>
       <c r="C48" s="0">
-        <v>0.14701111784702009</v>
+        <v>0.14425702669788165</v>
       </c>
       <c r="D48" s="0">
-        <v>0.10143434126625309</v>
+        <v>0.10066736545471741</v>
       </c>
       <c r="E48" s="0">
-        <v>1.5203313192563903</v>
+        <v>1.5208800190795331</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12">
+      <c r="A49" s="2">
         <v>36130</v>
       </c>
       <c r="B49" s="0">
         <v>1.6069164276123049</v>
       </c>
       <c r="C49" s="0">
-        <v>0.14991367872917247</v>
+        <v>0.14769250299908446</v>
       </c>
       <c r="D49" s="0">
-        <v>0.10294578597154505</v>
+        <v>0.10154638813962628</v>
       </c>
       <c r="E49" s="0">
-        <v>1.5960012643347619</v>
+        <v>1.5970341432123101</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12">
+      <c r="A50" s="2">
         <v>36161</v>
       </c>
       <c r="B50" s="0">
         <v>1.666664838790894</v>
       </c>
       <c r="C50" s="0">
-        <v>0.15324085556308251</v>
+        <v>0.15076745613780854</v>
       </c>
       <c r="D50" s="0">
-        <v>0.10499093264764972</v>
+        <v>0.10330941258985857</v>
       </c>
       <c r="E50" s="0">
-        <v>1.6598043695132363</v>
+        <v>1.658090255122441</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12">
+      <c r="A51" s="2">
         <v>36192</v>
       </c>
       <c r="B51" s="0">
         <v>1.666664838790894</v>
       </c>
       <c r="C51" s="0">
-        <v>0.15778528909491579</v>
+        <v>0.15541323369482191</v>
       </c>
       <c r="D51" s="0">
-        <v>0.1072425706652784</v>
+        <v>0.10553315687821888</v>
       </c>
       <c r="E51" s="0">
-        <v>1.7018604937181341</v>
+        <v>1.7009313139401407</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12">
+      <c r="A52" s="2">
         <v>36220</v>
       </c>
       <c r="B52" s="0">
         <v>1.728396892547607</v>
       </c>
       <c r="C52" s="0">
-        <v>0.16283767898192117</v>
+        <v>0.16171760546284791</v>
       </c>
       <c r="D52" s="0">
-        <v>0.11009562768808256</v>
+        <v>0.10754812854729531</v>
       </c>
       <c r="E52" s="0">
-        <v>1.8152602669136126</v>
+        <v>1.8116560212886887</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12">
+      <c r="A53" s="2">
         <v>36251</v>
       </c>
       <c r="B53" s="0">
         <v>2.2811324596405029</v>
       </c>
       <c r="C53" s="0">
-        <v>0.16857734277174996</v>
+        <v>0.16728847735671531</v>
       </c>
       <c r="D53" s="0">
-        <v>0.11257774309249377</v>
+        <v>0.11003811656503254</v>
       </c>
       <c r="E53" s="0">
-        <v>2.1162767795777362</v>
+        <v>2.1167348833630095</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="12">
+      <c r="A54" s="2">
         <v>36281</v>
       </c>
       <c r="B54" s="0">
         <v>2.0910170078277588</v>
       </c>
       <c r="C54" s="0">
-        <v>0.17224684585835698</v>
+        <v>0.1704810302716519</v>
       </c>
       <c r="D54" s="0">
-        <v>0.1128996871751059</v>
+        <v>0.11052669345406113</v>
       </c>
       <c r="E54" s="0">
-        <v>2.0849803026552349</v>
+        <v>2.083488726415581</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12">
+      <c r="A55" s="2">
         <v>36312</v>
       </c>
       <c r="B55" s="0">
         <v>1.9656000137329099</v>
       </c>
       <c r="C55" s="0">
-        <v>0.17568951753893208</v>
+        <v>0.17463160752728227</v>
       </c>
       <c r="D55" s="0">
-        <v>0.11344034500296832</v>
+        <v>0.11194943194173756</v>
       </c>
       <c r="E55" s="0">
-        <v>2.0450542668693155</v>
+        <v>2.0396664359671171</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="12">
+      <c r="A56" s="2">
         <v>36342</v>
       </c>
       <c r="B56" s="0">
         <v>2.144607782363892</v>
       </c>
       <c r="C56" s="0">
-        <v>0.18099494212245087</v>
+        <v>0.17927772282361121</v>
       </c>
       <c r="D56" s="0">
-        <v>0.1145128608241647</v>
+        <v>0.11273805432522715</v>
       </c>
       <c r="E56" s="0">
-        <v>2.1595455190599777</v>
+        <v>2.1578492692024702</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12">
+      <c r="A57" s="2">
         <v>36373</v>
       </c>
       <c r="B57" s="0">
         <v>2.2643895149230961</v>
       </c>
       <c r="C57" s="0">
-        <v>0.18620907088693056</v>
+        <v>0.18456987883015552</v>
       </c>
       <c r="D57" s="0">
-        <v>0.11630995347810441</v>
+        <v>0.11462886300431678</v>
       </c>
       <c r="E57" s="0">
-        <v>2.2982614653182081</v>
+        <v>2.2991431367429862</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12">
+      <c r="A58" s="2">
         <v>36404</v>
       </c>
       <c r="B58" s="0">
         <v>2.6299712657928471</v>
       </c>
       <c r="C58" s="0">
-        <v>0.1914369208166187</v>
+        <v>0.19007978426069594</v>
       </c>
       <c r="D58" s="0">
-        <v>0.11835691505656068</v>
+        <v>0.11622756803786941</v>
       </c>
       <c r="E58" s="0">
-        <v>2.5396725441475545</v>
+        <v>2.5396283207563322</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12">
+      <c r="A59" s="2">
         <v>36434</v>
       </c>
       <c r="B59" s="0">
         <v>2.5625457763671879</v>
       </c>
       <c r="C59" s="0">
-        <v>0.19446893450807556</v>
+        <v>0.19326455068030829</v>
       </c>
       <c r="D59" s="0">
-        <v>0.11929780157463726</v>
+        <v>0.11732238491859615</v>
       </c>
       <c r="E59" s="0">
-        <v>2.5680907917361369</v>
+        <v>2.5670099203357797</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12">
+      <c r="A60" s="2">
         <v>36465</v>
       </c>
       <c r="B60" s="0">
         <v>2.620345830917358</v>
       </c>
       <c r="C60" s="0">
-        <v>0.19999757740546464</v>
+        <v>0.19820182552775006</v>
       </c>
       <c r="D60" s="0">
-        <v>0.12106771110281368</v>
+        <v>0.11957144080316026</v>
       </c>
       <c r="E60" s="0">
-        <v>2.6309449727231562</v>
+        <v>2.6252435155812983</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12">
+      <c r="A61" s="2">
         <v>36495</v>
       </c>
       <c r="B61" s="0">
         <v>2.676404714584351</v>
       </c>
       <c r="C61" s="0">
-        <v>0.20717335959988731</v>
+        <v>0.20575823376449179</v>
       </c>
       <c r="D61" s="0">
-        <v>0.12314227351494908</v>
+        <v>0.1215972901155131</v>
       </c>
       <c r="E61" s="0">
-        <v>2.7056603088785742</v>
+        <v>2.7038963172010901</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="12">
+      <c r="A62" s="2">
         <v>36526</v>
       </c>
       <c r="B62" s="0">
         <v>2.792960643768311</v>
       </c>
       <c r="C62" s="0">
-        <v>0.21520283590458164</v>
+        <v>0.21378301984715342</v>
       </c>
       <c r="D62" s="0">
-        <v>0.12591036704405079</v>
+        <v>0.12463888046385056</v>
       </c>
       <c r="E62" s="0">
-        <v>2.8526655753308705</v>
+        <v>2.8522268756793685</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="12">
+      <c r="A63" s="2">
         <v>36557</v>
       </c>
       <c r="B63" s="0">
         <v>3.217973947525024</v>
       </c>
       <c r="C63" s="0">
-        <v>0.22420588362239313</v>
+        <v>0.22339452392279668</v>
       </c>
       <c r="D63" s="0">
-        <v>0.12967745262772115</v>
+        <v>0.12777925982742125</v>
       </c>
       <c r="E63" s="0">
-        <v>3.1955981238320574</v>
+        <v>3.1959684512268418</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="12">
+      <c r="A64" s="2">
         <v>36586</v>
       </c>
       <c r="B64" s="0">
         <v>3.7621340751647949</v>
       </c>
       <c r="C64" s="0">
-        <v>0.23040519298296758</v>
+        <v>0.22919724724656493</v>
       </c>
       <c r="D64" s="0">
-        <v>0.13282530185372399</v>
+        <v>0.13267548140432905</v>
       </c>
       <c r="E64" s="0">
-        <v>3.5281235299315945</v>
+        <v>3.5185125142040414</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="12">
+      <c r="A65" s="2">
         <v>36617</v>
       </c>
       <c r="B65" s="0">
         <v>3.0138638019561772</v>
       </c>
       <c r="C65" s="0">
-        <v>0.23190817743540332</v>
+        <v>0.22981644402699744</v>
       </c>
       <c r="D65" s="0">
-        <v>0.13358237995111272</v>
+        <v>0.13308904126608578</v>
       </c>
       <c r="E65" s="0">
-        <v>3.1594079753841369</v>
+        <v>3.1585271650700935</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="12">
+      <c r="A66" s="2">
         <v>36647</v>
       </c>
       <c r="B66" s="0">
         <v>3.1325283050537109</v>
       </c>
       <c r="C66" s="0">
-        <v>0.23059000705405402</v>
+        <v>0.22810914466566232</v>
       </c>
       <c r="D66" s="0">
-        <v>0.13245007224933453</v>
+        <v>0.13251611977177291</v>
       </c>
       <c r="E66" s="0">
-        <v>3.2335437973623402</v>
+        <v>3.2332239071540636</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="12">
+      <c r="A67" s="2">
         <v>36678</v>
       </c>
       <c r="B67" s="0">
         <v>3.7349379062652588</v>
       </c>
       <c r="C67" s="0">
-        <v>0.22962571100790519</v>
+        <v>0.22741570784222709</v>
       </c>
       <c r="D67" s="0">
-        <v>0.13164022559302541</v>
+        <v>0.13149072167515721</v>
       </c>
       <c r="E67" s="0">
-        <v>3.5925525750321339</v>
+        <v>3.5941863066909168</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="12">
+      <c r="A68" s="2">
         <v>36708</v>
       </c>
       <c r="B68" s="0">
         <v>3.5992801189422612</v>
       </c>
       <c r="C68" s="0">
-        <v>0.22476978092637867</v>
+        <v>0.22298678667786645</v>
       </c>
       <c r="D68" s="0">
-        <v>0.12899907332341309</v>
+        <v>0.12914934242475906</v>
       </c>
       <c r="E68" s="0">
-        <v>3.5536965225349655</v>
+        <v>3.5544764731836525</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12">
+      <c r="A69" s="2">
         <v>36739</v>
       </c>
       <c r="B69" s="0">
         <v>3.3512811660766602</v>
       </c>
       <c r="C69" s="0">
-        <v>0.22152154515183062</v>
+        <v>0.22073419149516807</v>
       </c>
       <c r="D69" s="0">
-        <v>0.12754369272787247</v>
+        <v>0.12727884740047565</v>
       </c>
       <c r="E69" s="0">
-        <v>3.4115482495741705</v>
+        <v>3.412689424810937</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="12">
+      <c r="A70" s="2">
         <v>36770</v>
       </c>
       <c r="B70" s="0">
         <v>3.4564976692199711</v>
       </c>
       <c r="C70" s="0">
-        <v>0.21915331818460604</v>
+        <v>0.21897417508737649</v>
       </c>
       <c r="D70" s="0">
-        <v>0.12634881734251219</v>
+        <v>0.12603253363356848</v>
       </c>
       <c r="E70" s="0">
-        <v>3.447218477937311</v>
+        <v>3.4460955803052342</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="12">
+      <c r="A71" s="2">
         <v>36800</v>
       </c>
       <c r="B71" s="0">
         <v>3.450319766998291</v>
       </c>
       <c r="C71" s="0">
-        <v>0.21797465501614063</v>
+        <v>0.21940631756712195</v>
       </c>
       <c r="D71" s="0">
-        <v>0.12440028194005601</v>
+        <v>0.12522931967667567</v>
       </c>
       <c r="E71" s="0">
-        <v>3.4512815826818768</v>
+        <v>3.4498388431713183</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="12">
+      <c r="A72" s="2">
         <v>36831</v>
       </c>
       <c r="B72" s="0">
         <v>3.444182395935059</v>
       </c>
       <c r="C72" s="0">
-        <v>0.22098912899332751</v>
+        <v>0.22213066571805754</v>
       </c>
       <c r="D72" s="0">
-        <v>0.12451648234137555</v>
+        <v>0.12567150789591142</v>
       </c>
       <c r="E72" s="0">
-        <v>3.4535565118833205</v>
+        <v>3.4532242079509214</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="12">
+      <c r="A73" s="2">
         <v>36861</v>
       </c>
       <c r="B73" s="0">
         <v>3.4360206127166748</v>
       </c>
       <c r="C73" s="0">
-        <v>0.22681912099888019</v>
+        <v>0.22560345791220815</v>
       </c>
       <c r="D73" s="0">
-        <v>0.12480004420740196</v>
+        <v>0.12636971701731373</v>
       </c>
       <c r="E73" s="0">
-        <v>3.4708901393162384</v>
+        <v>3.4672023577015283</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="12">
+      <c r="A74" s="2">
         <v>36892</v>
       </c>
       <c r="B74" s="0">
         <v>3.7212066650390621</v>
       </c>
       <c r="C74" s="0">
-        <v>0.23515673485981989</v>
+        <v>0.23457253080459464</v>
       </c>
       <c r="D74" s="0">
-        <v>0.12489499485535276</v>
+        <v>0.12643608595800038</v>
       </c>
       <c r="E74" s="0">
-        <v>3.6238334382538415</v>
+        <v>3.6217020941004283</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="12">
+      <c r="A75" s="2">
         <v>36923</v>
       </c>
       <c r="B75" s="0">
         <v>3.529411792755127</v>
       </c>
       <c r="C75" s="0">
-        <v>0.24452475333725934</v>
+        <v>0.24451649137012066</v>
       </c>
       <c r="D75" s="0">
-        <v>0.12539181275510913</v>
+        <v>0.12703693619134121</v>
       </c>
       <c r="E75" s="0">
-        <v>3.4780377015240322</v>
+        <v>3.4729308322532066</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="12">
+      <c r="A76" s="2">
         <v>36951</v>
       </c>
       <c r="B76" s="0">
         <v>2.9824597835540771</v>
       </c>
       <c r="C76" s="0">
-        <v>0.25501249260909531</v>
+        <v>0.25409058208588642</v>
       </c>
       <c r="D76" s="0">
-        <v>0.12545952252218051</v>
+        <v>0.12762653257929488</v>
       </c>
       <c r="E76" s="0">
-        <v>3.1142404586764831</v>
+        <v>3.1173836441444869</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="12">
+      <c r="A77" s="2">
         <v>36982</v>
       </c>
       <c r="B77" s="0">
         <v>3.2182564735412602</v>
       </c>
       <c r="C77" s="0">
-        <v>0.26155432887451241</v>
+        <v>0.25992078971824839</v>
       </c>
       <c r="D77" s="0">
-        <v>0.1252108272181271</v>
+        <v>0.12674563992149485</v>
       </c>
       <c r="E77" s="0">
-        <v>3.2343695922295388</v>
+        <v>3.2388875379754327</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="12">
+      <c r="A78" s="2">
         <v>37012</v>
       </c>
       <c r="B78" s="0">
         <v>3.5630877017974849</v>
       </c>
       <c r="C78" s="0">
-        <v>0.26809567030865389</v>
+        <v>0.26777311048905222</v>
       </c>
       <c r="D78" s="0">
-        <v>0.12491257342633338</v>
+        <v>0.12671964335886693</v>
       </c>
       <c r="E78" s="0">
-        <v>3.4437526724690888</v>
+        <v>3.4432363244888262</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="12">
+      <c r="A79" s="2">
         <v>37043</v>
       </c>
       <c r="B79" s="0">
         <v>3.1939606666564941</v>
       </c>
       <c r="C79" s="0">
-        <v>0.27646850024628211</v>
+        <v>0.27643631993692502</v>
       </c>
       <c r="D79" s="0">
-        <v>0.12414388604867284</v>
+        <v>0.12514759977415818</v>
       </c>
       <c r="E79" s="0">
-        <v>3.1700487256543144</v>
+        <v>3.1690540061546431</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="12">
+      <c r="A80" s="2">
         <v>37073</v>
       </c>
       <c r="B80" s="0">
         <v>2.7214806079864502</v>
       </c>
       <c r="C80" s="0">
-        <v>0.28222029269139759</v>
+        <v>0.28408724043898281</v>
       </c>
       <c r="D80" s="0">
-        <v>0.12371574020106707</v>
+        <v>0.12427915920077845</v>
       </c>
       <c r="E80" s="0">
-        <v>2.7873363573959815</v>
+        <v>2.7857708545314903</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="12">
+      <c r="A81" s="2">
         <v>37104</v>
       </c>
       <c r="B81" s="0">
         <v>2.7214806079864502</v>
       </c>
       <c r="C81" s="0">
-        <v>0.28457348990513848</v>
+        <v>0.28406277022978399</v>
       </c>
       <c r="D81" s="0">
-        <v>0.1227132894814775</v>
+        <v>0.12348812692609092</v>
       </c>
       <c r="E81" s="0">
-        <v>2.7044775496972973</v>
+        <v>2.7068630317057294</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="12">
+      <c r="A82" s="2">
         <v>37135</v>
       </c>
       <c r="B82" s="0">
         <v>2.5921657085418701</v>
       </c>
       <c r="C82" s="0">
-        <v>0.29003156538869074</v>
+        <v>0.2906266796739384</v>
       </c>
       <c r="D82" s="0">
-        <v>0.12215348874012158</v>
+        <v>0.12320460887079387</v>
       </c>
       <c r="E82" s="0">
-        <v>2.5468543700078108</v>
+        <v>2.5453075349324514</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="12">
+      <c r="A83" s="2">
         <v>37165</v>
       </c>
       <c r="B83" s="0">
         <v>2.127666711807251</v>
       </c>
       <c r="C83" s="0">
-        <v>0.29755396852080179</v>
+        <v>0.29631447119961019</v>
       </c>
       <c r="D83" s="0">
-        <v>0.12125166448903159</v>
+        <v>0.12319554380759765</v>
       </c>
       <c r="E83" s="0">
-        <v>2.1535348114706601</v>
+        <v>2.1539197374909125</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="12">
+      <c r="A84" s="2">
         <v>37196</v>
       </c>
       <c r="B84" s="0">
         <v>1.8943760395050051</v>
       </c>
       <c r="C84" s="0">
-        <v>0.30006660380728323</v>
+        <v>0.29849464861485031</v>
       </c>
       <c r="D84" s="0">
-        <v>0.12111979187774269</v>
+        <v>0.12317163635097167</v>
       </c>
       <c r="E84" s="0">
-        <v>1.889674030490613</v>
+        <v>1.8909262055487828</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="12">
+      <c r="A85" s="2">
         <v>37226</v>
       </c>
       <c r="B85" s="0">
         <v>1.6036584377288821</v>
       </c>
       <c r="C85" s="0">
-        <v>0.30100222535041432</v>
+        <v>0.29936728385152644</v>
       </c>
       <c r="D85" s="0">
-        <v>0.12089875770082467</v>
+        <v>0.12260237066904259</v>
       </c>
       <c r="E85" s="0">
-        <v>1.5989687370434469</v>
+        <v>1.599168254535146</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="12">
+      <c r="A86" s="2">
         <v>37257</v>
       </c>
       <c r="B86" s="0">
         <v>1.1958944797515869</v>
       </c>
       <c r="C86" s="0">
-        <v>0.30028640789557648</v>
+        <v>0.30054213319240203</v>
       </c>
       <c r="D86" s="0">
-        <v>0.1215912167087454</v>
+        <v>0.12332470397661027</v>
       </c>
       <c r="E86" s="0">
-        <v>1.2563906797906412</v>
+        <v>1.2517114457844278</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="12">
+      <c r="A87" s="2">
         <v>37288</v>
       </c>
       <c r="B87" s="0">
         <v>1.136363625526428</v>
       </c>
       <c r="C87" s="0">
-        <v>0.29650572312632872</v>
+        <v>0.29631800330958596</v>
       </c>
       <c r="D87" s="0">
-        <v>0.12192323393984822</v>
+        <v>0.12338509237207335</v>
       </c>
       <c r="E87" s="0">
-        <v>1.1931888997011579</v>
+        <v>1.1874095030043306</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="12">
+      <c r="A88" s="2">
         <v>37316</v>
       </c>
       <c r="B88" s="0">
         <v>1.3628585338592529</v>
       </c>
       <c r="C88" s="0">
-        <v>0.29686458396458448</v>
+        <v>0.29585251977430349</v>
       </c>
       <c r="D88" s="0">
-        <v>0.12250779411858292</v>
+        <v>0.12340453823432672</v>
       </c>
       <c r="E88" s="0">
-        <v>1.3640710302599406</v>
+        <v>1.363325581297834</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="12">
+      <c r="A89" s="2">
         <v>37347</v>
       </c>
       <c r="B89" s="0">
         <v>1.643996119499207</v>
       </c>
       <c r="C89" s="0">
-        <v>0.29716218336563571</v>
+        <v>0.29739927714284586</v>
       </c>
       <c r="D89" s="0">
-        <v>0.12264569049259914</v>
+        <v>0.12411763516471622</v>
       </c>
       <c r="E89" s="0">
-        <v>1.5530238102661618</v>
+        <v>1.5501770347915369</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="12">
+      <c r="A90" s="2">
         <v>37377</v>
       </c>
       <c r="B90" s="0">
         <v>1.240833044052124</v>
       </c>
       <c r="C90" s="0">
-        <v>0.29850519849801876</v>
+        <v>0.30057711923449137</v>
       </c>
       <c r="D90" s="0">
-        <v>0.1231215396744714</v>
+        <v>0.12425562281185148</v>
       </c>
       <c r="E90" s="0">
-        <v>1.2751087342872418</v>
+        <v>1.2755835885350919</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="12">
+      <c r="A91" s="2">
         <v>37408</v>
       </c>
       <c r="B91" s="0">
         <v>1.0692229270935061</v>
       </c>
       <c r="C91" s="0">
-        <v>0.30088800132036653</v>
+        <v>0.30108421693739862</v>
       </c>
       <c r="D91" s="0">
-        <v>0.12367720334213229</v>
+        <v>0.12420936594291612</v>
       </c>
       <c r="E91" s="0">
-        <v>1.151315989940457</v>
+        <v>1.1556081446561182</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="12">
+      <c r="A92" s="2">
         <v>37438</v>
       </c>
       <c r="B92" s="0">
         <v>1.465617895126343</v>
       </c>
       <c r="C92" s="0">
-        <v>0.30410196079492935</v>
+        <v>0.30387489132063455</v>
       </c>
       <c r="D92" s="0">
-        <v>0.12339802181242127</v>
+        <v>0.12408680774462906</v>
       </c>
       <c r="E92" s="0">
-        <v>1.4526226766679646</v>
+        <v>1.4557708067354693</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="12">
+      <c r="A93" s="2">
         <v>37469</v>
       </c>
       <c r="B93" s="0">
         <v>1.7474668025970459</v>
       </c>
       <c r="C93" s="0">
-        <v>0.30549918487968958</v>
+        <v>0.30416254454331387</v>
       </c>
       <c r="D93" s="0">
-        <v>0.12430562154015616</v>
+        <v>0.12523344056305605</v>
       </c>
       <c r="E93" s="0">
-        <v>1.6900211141980037</v>
+        <v>1.6855289396757667</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="12">
+      <c r="A94" s="2">
         <v>37500</v>
       </c>
       <c r="B94" s="0">
         <v>1.516000509262085</v>
       </c>
       <c r="C94" s="0">
-        <v>0.30797116583764805</v>
+        <v>0.30537316254119456</v>
       </c>
       <c r="D94" s="0">
-        <v>0.12469206208942862</v>
+        <v>0.12410140613449328</v>
       </c>
       <c r="E94" s="0">
-        <v>1.6004052929451709</v>
+        <v>1.6061737189624312</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="12">
+      <c r="A95" s="2">
         <v>37530</v>
       </c>
       <c r="B95" s="0">
         <v>2.0270218849182129</v>
       </c>
       <c r="C95" s="0">
-        <v>0.31226671575987686</v>
+        <v>0.31087031714967372</v>
       </c>
       <c r="D95" s="0">
-        <v>0.12431810586316561</v>
+        <v>0.1237939041378245</v>
       </c>
       <c r="E95" s="0">
-        <v>2.0024807522875201</v>
+        <v>2.0019497909596522</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="12">
+      <c r="A96" s="2">
         <v>37561</v>
       </c>
       <c r="B96" s="0">
         <v>2.253521203994751</v>
       </c>
       <c r="C96" s="0">
-        <v>0.31487933436728144</v>
+        <v>0.31039317951015244</v>
       </c>
       <c r="D96" s="0">
-        <v>0.12471842205815742</v>
+        <v>0.12379626907916874</v>
       </c>
       <c r="E96" s="0">
-        <v>2.2571737163997674</v>
+        <v>2.2510271448839023</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="12">
+      <c r="A97" s="2">
         <v>37591</v>
       </c>
       <c r="B97" s="0">
         <v>2.4802758693695068</v>
       </c>
       <c r="C97" s="0">
-        <v>0.31568482085439875</v>
+        <v>0.31098177817408124</v>
       </c>
       <c r="D97" s="0">
-        <v>0.12476360310234591</v>
+        <v>0.12380123636663942</v>
       </c>
       <c r="E97" s="0">
-        <v>2.4867380189697594</v>
+        <v>2.4893725696998033</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="12">
+      <c r="A98" s="2">
         <v>37622</v>
       </c>
       <c r="B98" s="0">
         <v>2.7574615478515621</v>
       </c>
       <c r="C98" s="0">
-        <v>0.31587724792224903</v>
+        <v>0.31064753305276283</v>
       </c>
       <c r="D98" s="0">
-        <v>0.12531320062358689</v>
+        <v>0.12475902616800805</v>
       </c>
       <c r="E98" s="0">
-        <v>2.7550228787324409</v>
+        <v>2.7517266798487894</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="12">
+      <c r="A99" s="2">
         <v>37653</v>
       </c>
       <c r="B99" s="0">
         <v>3.1460709571838379</v>
       </c>
       <c r="C99" s="0">
-        <v>0.3144067662058122</v>
+        <v>0.31057156180437562</v>
       </c>
       <c r="D99" s="0">
-        <v>0.12582467968073724</v>
+        <v>0.12620570070178019</v>
       </c>
       <c r="E99" s="0">
-        <v>3.0591165291088744</v>
+        <v>3.0514813158329503</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="12">
+      <c r="A100" s="2">
         <v>37681</v>
       </c>
       <c r="B100" s="0">
         <v>3.025206565856934</v>
       </c>
       <c r="C100" s="0">
-        <v>0.31410110347357023</v>
+        <v>0.30893293570123959</v>
       </c>
       <c r="D100" s="0">
-        <v>0.12621046025644658</v>
+        <v>0.12745363435361445</v>
       </c>
       <c r="E100" s="0">
-        <v>2.9185125374347756</v>
+        <v>2.9195840581307593</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="12">
+      <c r="A101" s="2">
         <v>37712</v>
       </c>
       <c r="B101" s="0">
         <v>2.1751220226287842</v>
       </c>
       <c r="C101" s="0">
-        <v>0.31334154581985707</v>
+        <v>0.30864158233523187</v>
       </c>
       <c r="D101" s="0">
-        <v>0.12486641684482275</v>
+        <v>0.12671319910517281</v>
       </c>
       <c r="E101" s="0">
-        <v>2.2418575216280159</v>
+        <v>2.2468379867546462</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="12">
+      <c r="A102" s="2">
         <v>37742</v>
       </c>
       <c r="B102" s="0">
         <v>1.8941470384597781</v>
       </c>
       <c r="C102" s="0">
-        <v>0.30538623565112394</v>
+        <v>0.29891415985676961</v>
       </c>
       <c r="D102" s="0">
-        <v>0.12431256030392723</v>
+        <v>0.12667500046633318</v>
       </c>
       <c r="E102" s="0">
-        <v>1.9579240753069023</v>
+        <v>1.9641095908810327</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="12">
+      <c r="A103" s="2">
         <v>37773</v>
       </c>
       <c r="B103" s="0">
         <v>1.948774933815002</v>
       </c>
       <c r="C103" s="0">
-        <v>0.29609247124884708</v>
+        <v>0.29017056517271833</v>
       </c>
       <c r="D103" s="0">
-        <v>0.12435802543795017</v>
+        <v>0.12604396179868912</v>
       </c>
       <c r="E103" s="0">
-        <v>1.971107681821932</v>
+        <v>1.9747135708508243</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="12">
+      <c r="A104" s="2">
         <v>37803</v>
       </c>
       <c r="B104" s="0">
         <v>2.0555539131164551</v>
       </c>
       <c r="C104" s="0">
-        <v>0.28841244112903275</v>
+        <v>0.28294863348632471</v>
       </c>
       <c r="D104" s="0">
-        <v>0.12421150500429851</v>
+        <v>0.12602862509228271</v>
       </c>
       <c r="E104" s="0">
-        <v>2.0673238828538478</v>
+        <v>2.068171339413353</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="12">
+      <c r="A105" s="2">
         <v>37834</v>
       </c>
       <c r="B105" s="0">
         <v>2.2160665988922119</v>
       </c>
       <c r="C105" s="0">
-        <v>0.2854442109742435</v>
+        <v>0.28062423710364942</v>
       </c>
       <c r="D105" s="0">
-        <v>0.12430845033349561</v>
+        <v>0.12608074135038239</v>
       </c>
       <c r="E105" s="0">
-        <v>2.2032414102677493</v>
+        <v>2.204345674575467</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="12">
+      <c r="A106" s="2">
         <v>37865</v>
       </c>
       <c r="B106" s="0">
         <v>2.3783202171325679</v>
       </c>
       <c r="C106" s="0">
-        <v>0.28407044977257567</v>
+        <v>0.2793600892386266</v>
       </c>
       <c r="D106" s="0">
-        <v>0.12400152744165935</v>
+        <v>0.12638771671821955</v>
       </c>
       <c r="E106" s="0">
-        <v>2.305745461052271</v>
+        <v>2.3040787646954897</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="12">
+      <c r="A107" s="2">
         <v>37895</v>
       </c>
       <c r="B107" s="0">
         <v>2.0419409275054932</v>
       </c>
       <c r="C107" s="0">
-        <v>0.28560930488927938</v>
+        <v>0.28031681684148868</v>
       </c>
       <c r="D107" s="0">
-        <v>0.12476814860009916</v>
+        <v>0.12688853838916264</v>
       </c>
       <c r="E107" s="0">
-        <v>2.0666788775115732</v>
+        <v>2.0702399180590545</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="12">
+      <c r="A108" s="2">
         <v>37926</v>
       </c>
       <c r="B108" s="0">
         <v>1.928374648094177</v>
       </c>
       <c r="C108" s="0">
-        <v>0.28640083433893171</v>
+        <v>0.28071246454759868</v>
       </c>
       <c r="D108" s="0">
-        <v>0.12577854794708343</v>
+        <v>0.12778292313363121</v>
       </c>
       <c r="E108" s="0">
-        <v>1.9625047782975737</v>
+        <v>1.9669335559919241</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="12">
+      <c r="A109" s="2">
         <v>37956</v>
       </c>
       <c r="B109" s="0">
         <v>2.035201787948608</v>
       </c>
       <c r="C109" s="0">
-        <v>0.29064538489172287</v>
+        <v>0.28598543557331185</v>
       </c>
       <c r="D109" s="0">
-        <v>0.12589296352025955</v>
+        <v>0.12785767935399145</v>
       </c>
       <c r="E109" s="0">
-        <v>2.0186839697869852</v>
+        <v>2.0201300293090618</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="12">
+      <c r="A110" s="2">
         <v>37987</v>
       </c>
       <c r="B110" s="0">
         <v>2.0262851715087891</v>
       </c>
       <c r="C110" s="0">
-        <v>0.29871974088646791</v>
+        <v>0.29129828409085579</v>
       </c>
       <c r="D110" s="0">
-        <v>0.12665364651467143</v>
+        <v>0.1294212831911099</v>
       </c>
       <c r="E110" s="0">
-        <v>1.9952058094337271</v>
+        <v>1.9875401642169717</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="12">
+      <c r="A111" s="2">
         <v>38018</v>
       </c>
       <c r="B111" s="0">
         <v>1.6884480714797969</v>
       </c>
       <c r="C111" s="0">
-        <v>0.31010983758571986</v>
+        <v>0.30266111540573365</v>
       </c>
       <c r="D111" s="0">
-        <v>0.12774778124545969</v>
+        <v>0.13060474439981351</v>
       </c>
       <c r="E111" s="0">
-        <v>1.7505900399908836</v>
+        <v>1.7593535943686047</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="12">
+      <c r="A112" s="2">
         <v>38047</v>
       </c>
       <c r="B112" s="0">
         <v>1.740082859992981</v>
       </c>
       <c r="C112" s="0">
-        <v>0.32267504670895897</v>
+        <v>0.31533021027215113</v>
       </c>
       <c r="D112" s="0">
-        <v>0.12859152912868821</v>
+        <v>0.13121828332412966</v>
       </c>
       <c r="E112" s="0">
-        <v>1.8173301469399537</v>
+        <v>1.822395335170504</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="12">
+      <c r="A113" s="2">
         <v>38078</v>
       </c>
       <c r="B113" s="0">
         <v>2.2925748825073242</v>
       </c>
       <c r="C113" s="0">
-        <v>0.33596137312017776</v>
+        <v>0.33117556535698678</v>
       </c>
       <c r="D113" s="0">
-        <v>0.12958184559596159</v>
+        <v>0.13263717553669971</v>
       </c>
       <c r="E113" s="0">
-        <v>2.2972285030705475</v>
+        <v>2.2967088781693041</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="12">
+      <c r="A114" s="2">
         <v>38108</v>
       </c>
       <c r="B114" s="0">
         <v>2.897760152816772</v>
       </c>
       <c r="C114" s="0">
-        <v>0.34760062421883509</v>
+        <v>0.34005293002056658</v>
       </c>
       <c r="D114" s="0">
-        <v>0.1304504681675468</v>
+        <v>0.13315824407682023</v>
       </c>
       <c r="E114" s="0">
-        <v>2.8426717323020712</v>
+        <v>2.8383863146673507</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="12">
+      <c r="A115" s="2">
         <v>38139</v>
       </c>
       <c r="B115" s="0">
         <v>3.167661190032959</v>
       </c>
       <c r="C115" s="0">
-        <v>0.35052570106233644</v>
+        <v>0.34388938442767847</v>
       </c>
       <c r="D115" s="0">
-        <v>0.13147568247106001</v>
+        <v>0.13491619318930392</v>
       </c>
       <c r="E115" s="0">
-        <v>3.0890216091406737</v>
+        <v>3.0878373881658603</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="12">
+      <c r="A116" s="2">
         <v>38169</v>
       </c>
       <c r="B116" s="0">
         <v>2.9395804405212398</v>
       </c>
       <c r="C116" s="0">
-        <v>0.35453647366413166</v>
+        <v>0.3505325507430459</v>
       </c>
       <c r="D116" s="0">
-        <v>0.13273596521349806</v>
+        <v>0.13573357476737236</v>
       </c>
       <c r="E116" s="0">
-        <v>2.9131755293110322</v>
+        <v>2.9139778908138783</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="12">
+      <c r="A117" s="2">
         <v>38200</v>
       </c>
       <c r="B117" s="0">
         <v>2.5474238395690918</v>
       </c>
       <c r="C117" s="0">
-        <v>0.36155224089977539</v>
+        <v>0.35699372832178061</v>
       </c>
       <c r="D117" s="0">
-        <v>0.13279912951458916</v>
+        <v>0.13661505838316174</v>
       </c>
       <c r="E117" s="0">
-        <v>2.6033761644346196</v>
+        <v>2.612144596469606</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="12">
+      <c r="A118" s="2">
         <v>38231</v>
       </c>
       <c r="B118" s="0">
         <v>2.5391662120819092</v>
       </c>
       <c r="C118" s="0">
-        <v>0.36769762543540607</v>
+        <v>0.36230490496149392</v>
       </c>
       <c r="D118" s="0">
-        <v>0.13378609098032246</v>
+        <v>0.13698613416572877</v>
       </c>
       <c r="E118" s="0">
-        <v>2.6191439343359604</v>
+        <v>2.6296988632800278</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="12">
+      <c r="A119" s="2">
         <v>38261</v>
       </c>
       <c r="B119" s="0">
         <v>3.190919160842896</v>
       </c>
       <c r="C119" s="0">
-        <v>0.37756929935126815</v>
+        <v>0.37277896298179253</v>
       </c>
       <c r="D119" s="0">
-        <v>0.13477221333635497</v>
+        <v>0.13785864815194637</v>
       </c>
       <c r="E119" s="0">
-        <v>3.1629944417424865</v>
+        <v>3.1618947714687748</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="12">
+      <c r="A120" s="2">
         <v>38292</v>
       </c>
       <c r="B120" s="0">
         <v>3.6216199398040771</v>
       </c>
       <c r="C120" s="0">
-        <v>0.38399827599430908</v>
+        <v>0.3772556381426187</v>
       </c>
       <c r="D120" s="0">
-        <v>0.13549222667725302</v>
+        <v>0.13983682256193214</v>
       </c>
       <c r="E120" s="0">
-        <v>3.5317916646117915</v>
+        <v>3.5306623162583337</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="12">
+      <c r="A121" s="2">
         <v>38322</v>
       </c>
       <c r="B121" s="0">
         <v>3.3423163890838619</v>
       </c>
       <c r="C121" s="0">
-        <v>0.3877514077316474</v>
+        <v>0.38311288606943505</v>
       </c>
       <c r="D121" s="0">
-        <v>0.13697662407391964</v>
+        <v>0.14125652090957797</v>
       </c>
       <c r="E121" s="0">
-        <v>3.3176528625986323</v>
+        <v>3.3116455640525739</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="12">
+      <c r="A122" s="2">
         <v>38353</v>
       </c>
       <c r="B122" s="0">
         <v>2.8448753356933589</v>
       </c>
       <c r="C122" s="0">
-        <v>0.39331214854512853</v>
+        <v>0.38907525404425281</v>
       </c>
       <c r="D122" s="0">
-        <v>0.1379294074948848</v>
+        <v>0.1417358249446139</v>
       </c>
       <c r="E122" s="0">
-        <v>2.9193156492014602</v>
+        <v>2.9247617537086428</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="12">
+      <c r="A123" s="2">
         <v>38384</v>
       </c>
       <c r="B123" s="0">
         <v>3.0530247688293461</v>
       </c>
       <c r="C123" s="0">
-        <v>0.39512280306875491</v>
+        <v>0.39105169972558523</v>
       </c>
       <c r="D123" s="0">
-        <v>0.13861992390245886</v>
+        <v>0.14198655861188708</v>
       </c>
       <c r="E123" s="0">
-        <v>3.0581085965791566</v>
+        <v>3.0562531868311402</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="12">
+      <c r="A124" s="2">
         <v>38412</v>
       </c>
       <c r="B124" s="0">
         <v>3.2068412303924561</v>
       </c>
       <c r="C124" s="0">
-        <v>0.40234788605677668</v>
+        <v>0.39671123527993252</v>
       </c>
       <c r="D124" s="0">
-        <v>0.13930355220317411</v>
+        <v>0.14309427351803666</v>
       </c>
       <c r="E124" s="0">
-        <v>3.2017077503800517</v>
+        <v>3.1972485412913727</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="12">
+      <c r="A125" s="2">
         <v>38443</v>
       </c>
       <c r="B125" s="0">
         <v>3.3617947101593022</v>
       </c>
       <c r="C125" s="0">
-        <v>0.41391142944798598</v>
+        <v>0.40959329210708706</v>
       </c>
       <c r="D125" s="0">
-        <v>0.14126463797882541</v>
+        <v>0.14452002075878972</v>
       </c>
       <c r="E125" s="0">
-        <v>3.2943992372192126</v>
+        <v>3.2939715836595882</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="12">
+      <c r="A126" s="2">
         <v>38473</v>
       </c>
       <c r="B126" s="0">
         <v>2.8692929744720459</v>
       </c>
       <c r="C126" s="0">
-        <v>0.42821468146886799</v>
+        <v>0.42614665378680605</v>
       </c>
       <c r="D126" s="0">
-        <v>0.14212031977052669</v>
+        <v>0.14477771625323529</v>
       </c>
       <c r="E126" s="0">
-        <v>2.8910448629007446</v>
+        <v>2.8962508864363539</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="12">
+      <c r="A127" s="2">
         <v>38504</v>
       </c>
       <c r="B127" s="0">
         <v>2.541028738021851</v>
       </c>
       <c r="C127" s="0">
-        <v>0.44439401448390176</v>
+        <v>0.4431391944030022</v>
       </c>
       <c r="D127" s="0">
-        <v>0.14391374779624294</v>
+        <v>0.14573636851280325</v>
       </c>
       <c r="E127" s="0">
-        <v>2.6287868755539607</v>
+        <v>2.6304793958366179</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="12">
+      <c r="A128" s="2">
         <v>38534</v>
       </c>
       <c r="B128" s="0">
         <v>3.067153692245483</v>
       </c>
       <c r="C128" s="0">
-        <v>0.46770602481017687</v>
+        <v>0.46404729098452335</v>
       </c>
       <c r="D128" s="0">
-        <v>0.14510418010538068</v>
+        <v>0.14658463310871367</v>
       </c>
       <c r="E128" s="0">
-        <v>3.0920266966180145</v>
+        <v>3.0863967759398765</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="12">
+      <c r="A129" s="2">
         <v>38565</v>
       </c>
       <c r="B129" s="0">
         <v>3.6469392776489258</v>
       </c>
       <c r="C129" s="0">
-        <v>0.48154320076413082</v>
+        <v>0.47837394438251046</v>
       </c>
       <c r="D129" s="0">
-        <v>0.14553259808216373</v>
+        <v>0.14763760142990223</v>
       </c>
       <c r="E129" s="0">
-        <v>3.6669946241470504</v>
+        <v>3.6666800109516084</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="12">
+      <c r="A130" s="2">
         <v>38596</v>
       </c>
       <c r="B130" s="0">
         <v>4.7418332099914551</v>
       </c>
       <c r="C130" s="0">
-        <v>0.49205385938960233</v>
+        <v>0.48838193414688524</v>
       </c>
       <c r="D130" s="0">
-        <v>0.14694322346042304</v>
+        <v>0.14930414208694071</v>
       </c>
       <c r="E130" s="0">
-        <v>4.611060053697396</v>
+        <v>4.6070140904081205</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="12">
+      <c r="A131" s="2">
         <v>38626</v>
       </c>
       <c r="B131" s="0">
         <v>4.3501062393188477</v>
       </c>
       <c r="C131" s="0">
-        <v>0.48919643319890532</v>
+        <v>0.48653589326576707</v>
       </c>
       <c r="D131" s="0">
-        <v>0.14695259826827195</v>
+        <v>0.14983466468715906</v>
       </c>
       <c r="E131" s="0">
-        <v>4.2845794543881262</v>
+        <v>4.2812021992671738</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="12">
+      <c r="A132" s="2">
         <v>38657</v>
       </c>
       <c r="B132" s="0">
         <v>3.3385546207427979</v>
       </c>
       <c r="C132" s="0">
-        <v>0.48825925755416361</v>
+        <v>0.48673883906004917</v>
       </c>
       <c r="D132" s="0">
-        <v>0.14881681408327668</v>
+        <v>0.14995981659625676</v>
       </c>
       <c r="E132" s="0">
-        <v>3.4272632392502338</v>
+        <v>3.4336236659837098</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="12">
+      <c r="A133" s="2">
         <v>38687</v>
       </c>
       <c r="B133" s="0">
         <v>3.3385546207427979</v>
       </c>
       <c r="C133" s="0">
-        <v>0.47344980244770862</v>
+        <v>0.47715127370538024</v>
       </c>
       <c r="D133" s="0">
-        <v>0.14792488244099633</v>
+        <v>0.14950734710332197</v>
       </c>
       <c r="E133" s="0">
-        <v>3.4014313935380946</v>
+        <v>3.4010692617370806</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="12">
+      <c r="A134" s="2">
         <v>38718</v>
       </c>
       <c r="B134" s="0">
         <v>4.0187873840332031</v>
       </c>
       <c r="C134" s="0">
-        <v>0.47126806674520905</v>
+        <v>0.47198492089176913</v>
       </c>
       <c r="D134" s="0">
-        <v>0.14860728165271417</v>
+        <v>0.14938084142339547</v>
       </c>
       <c r="E134" s="0">
-        <v>3.9281542841645232</v>
+        <v>3.9273207931103271</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="12">
+      <c r="A135" s="2">
         <v>38749</v>
       </c>
       <c r="B135" s="0">
         <v>3.6382536888122559</v>
       </c>
       <c r="C135" s="0">
-        <v>0.45992806506888761</v>
+        <v>0.46268758367482787</v>
       </c>
       <c r="D135" s="0">
-        <v>0.14900328642906024</v>
+        <v>0.14868631245064312</v>
       </c>
       <c r="E135" s="0">
-        <v>3.6470260362807667</v>
+        <v>3.6471935583155854</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="12">
+      <c r="A136" s="2">
         <v>38777</v>
       </c>
       <c r="B136" s="0">
         <v>3.417913436889648</v>
       </c>
       <c r="C136" s="0">
-        <v>0.45143391477795997</v>
+        <v>0.4559728209841416</v>
       </c>
       <c r="D136" s="0">
-        <v>0.14912779165222412</v>
+        <v>0.14755499076930217</v>
       </c>
       <c r="E136" s="0">
-        <v>3.4649096795328873</v>
+        <v>3.4672598120585221</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="12">
+      <c r="A137" s="2">
         <v>38808</v>
       </c>
       <c r="B137" s="0">
         <v>3.6138358116149898</v>
       </c>
       <c r="C137" s="0">
-        <v>0.45091176050595383</v>
+        <v>0.45298002959411765</v>
       </c>
       <c r="D137" s="0">
-        <v>0.15043453691791786</v>
+        <v>0.14796596283984048</v>
       </c>
       <c r="E137" s="0">
-        <v>3.6380515520946708</v>
+        <v>3.6410975424450633</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="12">
+      <c r="A138" s="2">
         <v>38838</v>
       </c>
       <c r="B138" s="0">
         <v>3.9772710800170898</v>
       </c>
       <c r="C138" s="0">
-        <v>0.45482475060523997</v>
+        <v>0.45593058737873599</v>
       </c>
       <c r="D138" s="0">
-        <v>0.14936382290415789</v>
+        <v>0.14837585988305729</v>
       </c>
       <c r="E138" s="0">
-        <v>3.9597018430019904</v>
+        <v>3.9551690484571065</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="12">
+      <c r="A139" s="2">
         <v>38869</v>
       </c>
       <c r="B139" s="0">
         <v>4.181727409362793</v>
       </c>
       <c r="C139" s="0">
-        <v>0.45902571941374659</v>
+        <v>0.46119617503932964</v>
       </c>
       <c r="D139" s="0">
-        <v>0.14920598407714752</v>
+        <v>0.14955566113409066</v>
       </c>
       <c r="E139" s="0">
-        <v>4.1442156602241589</v>
+        <v>4.143337805179204</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="12">
+      <c r="A140" s="2">
         <v>38899</v>
       </c>
       <c r="B140" s="0">
         <v>4.1046690940856934</v>
       </c>
       <c r="C140" s="0">
-        <v>0.46380428210116775</v>
+        <v>0.47127427031739633</v>
       </c>
       <c r="D140" s="0">
-        <v>0.14982641251645468</v>
+        <v>0.15096247425650119</v>
       </c>
       <c r="E140" s="0">
-        <v>4.0675386715800492</v>
+        <v>4.0672996177428864</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="12">
+      <c r="A141" s="2">
         <v>38930</v>
       </c>
       <c r="B141" s="0">
         <v>3.926566362380981</v>
       </c>
       <c r="C141" s="0">
-        <v>0.48249125554921779</v>
+        <v>0.48740170496137247</v>
       </c>
       <c r="D141" s="0">
-        <v>0.15030206297727539</v>
+        <v>0.15222039426580281</v>
       </c>
       <c r="E141" s="0">
-        <v>3.793228446983731</v>
+        <v>3.7890879579954353</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="12">
+      <c r="A142" s="2">
         <v>38961</v>
       </c>
       <c r="B142" s="0">
         <v>2.0120723247528081</v>
       </c>
       <c r="C142" s="0">
-        <v>0.50393678886544857</v>
+        <v>0.50684409916168183</v>
       </c>
       <c r="D142" s="0">
-        <v>0.15045412802947294</v>
+        <v>0.15215997131214959</v>
       </c>
       <c r="E142" s="0">
-        <v>2.1177259896108458</v>
+        <v>2.1221954799239762</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="12">
+      <c r="A143" s="2">
         <v>38991</v>
       </c>
       <c r="B143" s="0">
         <v>1.4063223600387571</v>
       </c>
       <c r="C143" s="0">
-        <v>0.50382036369626437</v>
+        <v>0.50872844583642873</v>
       </c>
       <c r="D143" s="0">
-        <v>0.1498436901715989</v>
+        <v>0.15234979442177313</v>
       </c>
       <c r="E143" s="0">
-        <v>1.522895662757255</v>
+        <v>1.5164372311534742</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="12">
+      <c r="A144" s="2">
         <v>39022</v>
       </c>
       <c r="B144" s="0">
         <v>1.96869957447052</v>
       </c>
       <c r="C144" s="0">
-        <v>0.49687330434721189</v>
+        <v>0.50232850116520744</v>
       </c>
       <c r="D144" s="0">
-        <v>0.14824983425472846</v>
+        <v>0.15050427157200313</v>
       </c>
       <c r="E144" s="0">
-        <v>1.9757982927516491</v>
+        <v>1.9797212323413849</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="12">
+      <c r="A145" s="2">
         <v>39052</v>
       </c>
       <c r="B145" s="0">
         <v>2.5239777565002441</v>
       </c>
       <c r="C145" s="0">
-        <v>0.48839563285778664</v>
+        <v>0.49380973834129838</v>
       </c>
       <c r="D145" s="0">
-        <v>0.14683063581974937</v>
+        <v>0.14852551290477412</v>
       </c>
       <c r="E145" s="0">
-        <v>2.4466940593443662</v>
+        <v>2.442981197452561</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="12">
+      <c r="A146" s="2">
         <v>39083</v>
       </c>
       <c r="B146" s="0">
         <v>2.0757617950439449</v>
       </c>
       <c r="C146" s="0">
-        <v>0.47805943171863369</v>
+        <v>0.47976367416403121</v>
       </c>
       <c r="D146" s="0">
-        <v>0.14557285924457763</v>
+        <v>0.14828563012746465</v>
       </c>
       <c r="E146" s="0">
-        <v>2.139343617375228</v>
+        <v>2.1396281050168136</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="12">
+      <c r="A147" s="2">
         <v>39114</v>
       </c>
       <c r="B147" s="0">
         <v>2.4202628135681148</v>
       </c>
       <c r="C147" s="0">
-        <v>0.4690910478936372</v>
+        <v>0.47054835868570893</v>
       </c>
       <c r="D147" s="0">
-        <v>0.14394673710102077</v>
+        <v>0.14575868651977691</v>
       </c>
       <c r="E147" s="0">
-        <v>2.4259400613100515</v>
+        <v>2.419985248285208</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="12">
+      <c r="A148" s="2">
         <v>39142</v>
       </c>
       <c r="B148" s="0">
         <v>2.7981960773468022</v>
       </c>
       <c r="C148" s="0">
-        <v>0.46262229324193621</v>
+        <v>0.4632378061055803</v>
       </c>
       <c r="D148" s="0">
-        <v>0.14286272706371972</v>
+        <v>0.14408690300283608</v>
       </c>
       <c r="E148" s="0">
-        <v>2.7469613345150852</v>
+        <v>2.7448405518930707</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="12">
+      <c r="A149" s="2">
         <v>39173</v>
       </c>
       <c r="B149" s="0">
         <v>2.5929298400878911</v>
       </c>
       <c r="C149" s="0">
-        <v>0.45342972968502648</v>
+        <v>0.45659503194379925</v>
       </c>
       <c r="D149" s="0">
-        <v>0.14121974175312696</v>
+        <v>0.14353742770289507</v>
       </c>
       <c r="E149" s="0">
-        <v>2.6177652576789772</v>
+        <v>2.6121737447724693</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="12">
+      <c r="A150" s="2">
         <v>39203</v>
       </c>
       <c r="B150" s="0">
         <v>2.7098865509033199</v>
       </c>
       <c r="C150" s="0">
-        <v>0.45230094761158623</v>
+        <v>0.4561154422143151</v>
       </c>
       <c r="D150" s="0">
-        <v>0.14026541363504214</v>
+        <v>0.14270117493179144</v>
       </c>
       <c r="E150" s="0">
-        <v>2.6952003225240375</v>
+        <v>2.6952556142037394</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="12">
+      <c r="A151" s="2">
         <v>39234</v>
       </c>
       <c r="B151" s="0">
         <v>2.6927604675292969</v>
       </c>
       <c r="C151" s="0">
-        <v>0.45981788841887755</v>
+        <v>0.46182987996252323</v>
       </c>
       <c r="D151" s="0">
-        <v>0.13970378971569136</v>
+        <v>0.14251474380751702</v>
       </c>
       <c r="E151" s="0">
-        <v>2.663495406719786</v>
+        <v>2.6643101118472203</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="12">
+      <c r="A152" s="2">
         <v>39264</v>
       </c>
       <c r="B152" s="0">
         <v>2.3178920745849609</v>
       </c>
       <c r="C152" s="0">
-        <v>0.47462464294836959</v>
+        <v>0.47669269785113882</v>
       </c>
       <c r="D152" s="0">
-        <v>0.13813246004122981</v>
+        <v>0.14178453623013404</v>
       </c>
       <c r="E152" s="0">
-        <v>2.3275450093438428</v>
+        <v>2.3237063080713263</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="12">
+      <c r="A153" s="2">
         <v>39295</v>
       </c>
       <c r="B153" s="0">
         <v>1.8974505662918091</v>
       </c>
       <c r="C153" s="0">
-        <v>0.48877143090393671</v>
+        <v>0.49065737925553754</v>
       </c>
       <c r="D153" s="0">
-        <v>0.13719514904407759</v>
+        <v>0.14102082141422276</v>
       </c>
       <c r="E153" s="0">
-        <v>2.0006911526300577</v>
+        <v>2.0052095930734866</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="12">
+      <c r="A154" s="2">
         <v>39326</v>
       </c>
       <c r="B154" s="0">
         <v>2.833823442459106</v>
       </c>
       <c r="C154" s="0">
-        <v>0.50713254015978637</v>
+        <v>0.50591201483907111</v>
       </c>
       <c r="D154" s="0">
-        <v>0.13539273994012263</v>
+        <v>0.14026698050961656</v>
       </c>
       <c r="E154" s="0">
-        <v>2.8356663877025512</v>
+        <v>2.8329841351110767</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="12">
+      <c r="A155" s="2">
         <v>39356</v>
       </c>
       <c r="B155" s="0">
         <v>3.610702753067017</v>
       </c>
       <c r="C155" s="0">
-        <v>0.51318320540527929</v>
+        <v>0.51050777772698841</v>
       </c>
       <c r="D155" s="0">
-        <v>0.13452546686259825</v>
+        <v>0.1395660546957716</v>
       </c>
       <c r="E155" s="0">
-        <v>3.5984825283898587</v>
+        <v>3.5983709525771248</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="12">
+      <c r="A156" s="2">
         <v>39387</v>
       </c>
       <c r="B156" s="0">
         <v>4.3732671737670898</v>
       </c>
       <c r="C156" s="0">
-        <v>0.51052677609899699</v>
+        <v>0.50597582207998637</v>
       </c>
       <c r="D156" s="0">
-        <v>0.13454014935671754</v>
+        <v>0.13765376465620588</v>
       </c>
       <c r="E156" s="0">
-        <v>4.3001336338723952</v>
+        <v>4.3003943642836884</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="12">
+      <c r="A157" s="2">
         <v>39417</v>
       </c>
       <c r="B157" s="0">
         <v>4.1088137626647949</v>
       </c>
       <c r="C157" s="0">
-        <v>0.49740561151657703</v>
+        <v>0.49247973879845353</v>
       </c>
       <c r="D157" s="0">
-        <v>0.13444286882540341</v>
+        <v>0.13703811296913748</v>
       </c>
       <c r="E157" s="0">
-        <v>4.1270112963875984</v>
+        <v>4.1337628218491931</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="12">
+      <c r="A158" s="2">
         <v>39448</v>
       </c>
       <c r="B158" s="0">
         <v>4.2946953773498544</v>
       </c>
       <c r="C158" s="0">
-        <v>0.49535277379854303</v>
+        <v>0.48891447026265844</v>
       </c>
       <c r="D158" s="0">
-        <v>0.1335246078181957</v>
+        <v>0.13707111830364022</v>
       </c>
       <c r="E158" s="0">
-        <v>4.2692836671164933</v>
+        <v>4.2739677721154212</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="12">
+      <c r="A159" s="2">
         <v>39479</v>
       </c>
       <c r="B159" s="0">
         <v>4.1429586410522461</v>
       </c>
       <c r="C159" s="0">
-        <v>0.4934338573956093</v>
+        <v>0.48853584167471098</v>
       </c>
       <c r="D159" s="0">
-        <v>0.13348512382648248</v>
+        <v>0.13620910440900938</v>
       </c>
       <c r="E159" s="0">
-        <v>4.1406592326480798</v>
+        <v>4.1391241801689942</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="12">
+      <c r="A160" s="2">
         <v>39508</v>
       </c>
       <c r="B160" s="0">
         <v>3.9749054908752441</v>
       </c>
       <c r="C160" s="0">
-        <v>0.49824190803409896</v>
+        <v>0.49758743159695273</v>
       </c>
       <c r="D160" s="0">
-        <v>0.13347700437058987</v>
+        <v>0.13623909190540584</v>
       </c>
       <c r="E160" s="0">
-        <v>3.9831734835333261</v>
+        <v>3.989885837577221</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="12">
+      <c r="A161" s="2">
         <v>39539</v>
       </c>
       <c r="B161" s="0">
         <v>3.90375804901123</v>
       </c>
       <c r="C161" s="0">
-        <v>0.51222548830767645</v>
+        <v>0.51127125900234804</v>
       </c>
       <c r="D161" s="0">
-        <v>0.13353401653555888</v>
+        <v>0.13547142665903833</v>
       </c>
       <c r="E161" s="0">
-        <v>3.9277403554946231</v>
+        <v>3.9271816088155762</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="12">
+      <c r="A162" s="2">
         <v>39569</v>
       </c>
       <c r="B162" s="0">
         <v>4.0884079933166504</v>
       </c>
       <c r="C162" s="0">
-        <v>0.53259385142889581</v>
+        <v>0.53326235549152878</v>
       </c>
       <c r="D162" s="0">
-        <v>0.13352247693040342</v>
+        <v>0.13599683023393061</v>
       </c>
       <c r="E162" s="0">
-        <v>4.1268955350223191</v>
+        <v>4.1279307374695948</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="12">
+      <c r="A163" s="2">
         <v>39600</v>
       </c>
       <c r="B163" s="0">
         <v>4.9359679222106934</v>
       </c>
       <c r="C163" s="0">
-        <v>0.56187291852198307</v>
+        <v>0.56138199633209807</v>
       </c>
       <c r="D163" s="0">
-        <v>0.13353657037378053</v>
+        <v>0.13558165304254788</v>
       </c>
       <c r="E163" s="0">
-        <v>4.9142260683096666</v>
+        <v>4.9178971112668348</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="12">
+      <c r="A164" s="2">
         <v>39630</v>
       </c>
       <c r="B164" s="0">
         <v>5.4975166320800781</v>
       </c>
       <c r="C164" s="0">
-        <v>0.5803170112541387</v>
+        <v>0.58161257492135943</v>
       </c>
       <c r="D164" s="0">
-        <v>0.13349330386989003</v>
+        <v>0.13500694342157674</v>
       </c>
       <c r="E164" s="0">
-        <v>5.4525033287263334</v>
+        <v>5.4483785465080201</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="12">
+      <c r="A165" s="2">
         <v>39661</v>
       </c>
       <c r="B165" s="0">
         <v>5.3080143928527832</v>
       </c>
       <c r="C165" s="0">
-        <v>0.59789567474848981</v>
+        <v>0.59761146858496028</v>
       </c>
       <c r="D165" s="0">
-        <v>0.13475142333030468</v>
+        <v>0.13479215698080504</v>
       </c>
       <c r="E165" s="0">
-        <v>5.2886402847230407</v>
+        <v>5.29122769143149</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="12">
+      <c r="A166" s="2">
         <v>39692</v>
       </c>
       <c r="B166" s="0">
         <v>4.9533209800720206</v>
       </c>
       <c r="C166" s="0">
-        <v>0.62315791023474421</v>
+        <v>0.6244803953277005</v>
       </c>
       <c r="D166" s="0">
-        <v>0.13518480195652066</v>
+        <v>0.13505748130815037</v>
       </c>
       <c r="E166" s="0">
-        <v>4.9102299705789001</v>
+        <v>4.9098061811035816</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="12">
+      <c r="A167" s="2">
         <v>39722</v>
       </c>
       <c r="B167" s="0">
         <v>3.731054306030273</v>
       </c>
       <c r="C167" s="0">
-        <v>0.6601861699211542</v>
+        <v>0.65191601507734687</v>
       </c>
       <c r="D167" s="0">
-        <v>0.13470826027133925</v>
+        <v>0.13632243826674079</v>
       </c>
       <c r="E167" s="0">
-        <v>3.6718976950875382</v>
+        <v>3.6694279137516661</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="12">
+      <c r="A168" s="2">
         <v>39753</v>
       </c>
       <c r="B168" s="0">
         <v>1.099917531013489</v>
       </c>
       <c r="C168" s="0">
-        <v>0.67500174795972667</v>
+        <v>0.66775746724999285</v>
       </c>
       <c r="D168" s="0">
-        <v>0.1346075497521865</v>
+        <v>0.13649447734907325</v>
       </c>
       <c r="E168" s="0">
-        <v>1.163697936200381</v>
+        <v>1.1696047768137317</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="12">
+      <c r="A169" s="2">
         <v>39783</v>
       </c>
       <c r="B169" s="0">
         <v>-0.02223383262753487</v>
       </c>
       <c r="C169" s="0">
-        <v>0.65452056274084436</v>
+        <v>0.64740223126365981</v>
       </c>
       <c r="D169" s="0">
-        <v>0.13394579716309568</v>
+        <v>0.13479109768422157</v>
       </c>
       <c r="E169" s="0">
-        <v>0.030850610140549684</v>
+        <v>0.032867992647636068</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="12">
+      <c r="A170" s="2">
         <v>39814</v>
       </c>
       <c r="B170" s="0">
         <v>-0.1135847568511963</v>
       </c>
       <c r="C170" s="0">
-        <v>0.62241802462490359</v>
+        <v>0.61474157681934982</v>
       </c>
       <c r="D170" s="0">
-        <v>0.13248986247398445</v>
+        <v>0.13431693578929838</v>
       </c>
       <c r="E170" s="0">
-        <v>-0.10298900429996527</v>
+        <v>-0.098665309854529148</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="12">
+      <c r="A171" s="2">
         <v>39845</v>
       </c>
       <c r="B171" s="0">
         <v>0.0084656663239002228</v>
       </c>
       <c r="C171" s="0">
-        <v>0.60378689869706759</v>
+        <v>0.59584867736585001</v>
       </c>
       <c r="D171" s="0">
-        <v>0.1326973653669217</v>
+        <v>0.13343068962159244</v>
       </c>
       <c r="E171" s="0">
-        <v>-0.018176314327519982</v>
+        <v>-0.019574946644921987</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="12">
+      <c r="A172" s="2">
         <v>39873</v>
       </c>
       <c r="B172" s="0">
         <v>-0.4464801549911499</v>
       </c>
       <c r="C172" s="0">
-        <v>0.59190345285759816</v>
+        <v>0.58561617776378216</v>
       </c>
       <c r="D172" s="0">
-        <v>0.13199837882295556</v>
+        <v>0.132056340046388</v>
       </c>
       <c r="E172" s="0">
-        <v>-0.43215159561007876</v>
+        <v>-0.43279618624506622</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="12">
+      <c r="A173" s="2">
         <v>39904</v>
       </c>
       <c r="B173" s="0">
         <v>-0.57632523775100708</v>
       </c>
       <c r="C173" s="0">
-        <v>0.58071325017101838</v>
+        <v>0.57746073238442686</v>
       </c>
       <c r="D173" s="0">
-        <v>0.13094139709091052</v>
+        <v>0.13189699884661021</v>
       </c>
       <c r="E173" s="0">
-        <v>-0.59282646784482385</v>
+        <v>-0.5878900383009853</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="12">
+      <c r="A174" s="2">
         <v>39934</v>
       </c>
       <c r="B174" s="0">
         <v>-1.0157566070556641</v>
       </c>
       <c r="C174" s="0">
-        <v>0.5775299069858475</v>
+        <v>0.57696857107099198</v>
       </c>
       <c r="D174" s="0">
-        <v>0.13118631546723877</v>
+        <v>0.13223503876447434</v>
       </c>
       <c r="E174" s="0">
-        <v>-1.0030657839184798</v>
+        <v>-1.0060273352986577</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="12">
+      <c r="A175" s="2">
         <v>39965</v>
       </c>
       <c r="B175" s="0">
         <v>-1.22917652130127</v>
       </c>
       <c r="C175" s="0">
-        <v>0.57795257861352356</v>
+        <v>0.57773733890403012</v>
       </c>
       <c r="D175" s="0">
-        <v>0.13096531314918014</v>
+        <v>0.13186007145462936</v>
       </c>
       <c r="E175" s="0">
-        <v>-1.2510596371263922</v>
+        <v>-1.2468827877351796</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="12">
+      <c r="A176" s="2">
         <v>39995</v>
       </c>
       <c r="B176" s="0">
         <v>-1.958764791488647</v>
       </c>
       <c r="C176" s="0">
-        <v>0.58513741889351389</v>
+        <v>0.58458904143752211</v>
       </c>
       <c r="D176" s="0">
-        <v>0.13142809887345769</v>
+        <v>0.13200992214806023</v>
       </c>
       <c r="E176" s="0">
-        <v>-1.8947286011464266</v>
+        <v>-1.8953383420576912</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="12">
+      <c r="A177" s="2">
         <v>40026</v>
       </c>
       <c r="B177" s="0">
         <v>-1.483833312988281</v>
       </c>
       <c r="C177" s="0">
-        <v>0.58500188887274784</v>
+        <v>0.5849898130134068</v>
       </c>
       <c r="D177" s="0">
-        <v>0.12987770438657631</v>
+        <v>0.13094751618220227</v>
       </c>
       <c r="E177" s="0">
-        <v>-1.4914036293328952</v>
+        <v>-1.49447142449106</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="12">
+      <c r="A178" s="2">
         <v>40057</v>
       </c>
       <c r="B178" s="0">
         <v>-1.3779457807540889</v>
       </c>
       <c r="C178" s="0">
-        <v>0.58934661989810855</v>
+        <v>0.58946709652105356</v>
       </c>
       <c r="D178" s="0">
-        <v>0.13018838787219728</v>
+        <v>0.13073876407227097</v>
       </c>
       <c r="E178" s="0">
-        <v>-1.3187502886375029</v>
+        <v>-1.3216502297685437</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="12">
+      <c r="A179" s="2">
         <v>40087</v>
       </c>
       <c r="B179" s="0">
         <v>-0.2239648103713989</v>
       </c>
       <c r="C179" s="0">
-        <v>0.59754487929452371</v>
+        <v>0.59899469267411221</v>
       </c>
       <c r="D179" s="0">
-        <v>0.12927838798972868</v>
+        <v>0.12952575338924749</v>
       </c>
       <c r="E179" s="0">
-        <v>-0.17033603116617169</v>
+        <v>-0.17338528956227428</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="12">
+      <c r="A180" s="2">
         <v>40118</v>
       </c>
       <c r="B180" s="0">
         <v>1.914584159851074</v>
       </c>
       <c r="C180" s="0">
-        <v>0.59328637059539435</v>
+        <v>0.59262169450699964</v>
       </c>
       <c r="D180" s="0">
-        <v>0.12875155570319641</v>
+        <v>0.1289501693457184</v>
       </c>
       <c r="E180" s="0">
-        <v>1.85677987985266</v>
+        <v>1.8541476411606723</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="12">
+      <c r="A181" s="2">
         <v>40148</v>
       </c>
       <c r="B181" s="0">
         <v>2.814125537872314</v>
       </c>
       <c r="C181" s="0">
-        <v>0.56163165879844512</v>
+        <v>0.5600992425352429</v>
       </c>
       <c r="D181" s="0">
-        <v>0.1276808597182576</v>
+        <v>0.12786150064908336</v>
       </c>
       <c r="E181" s="0">
-        <v>2.7464549188343179</v>
+        <v>2.740500337684268</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="12">
+      <c r="A182" s="2">
         <v>40179</v>
       </c>
       <c r="B182" s="0">
         <v>2.6211152076721191</v>
       </c>
       <c r="C182" s="0">
-        <v>0.52120074005457662</v>
+        <v>0.51853787926473327</v>
       </c>
       <c r="D182" s="0">
-        <v>0.12634001382268323</v>
+        <v>0.12658885632862626</v>
       </c>
       <c r="E182" s="0">
-        <v>2.5966315611608421</v>
+        <v>2.5980504417764081</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="12">
+      <c r="A183" s="2">
         <v>40210</v>
       </c>
       <c r="B183" s="0">
         <v>2.1513383388519292</v>
       </c>
       <c r="C183" s="0">
-        <v>0.49232948513392605</v>
+        <v>0.48872778415207196</v>
       </c>
       <c r="D183" s="0">
-        <v>0.12500278504233481</v>
+        <v>0.12599673046241616</v>
       </c>
       <c r="E183" s="0">
-        <v>2.1892662117201236</v>
+        <v>2.1899966472588912</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="12">
+      <c r="A184" s="2">
         <v>40238</v>
       </c>
       <c r="B184" s="0">
         <v>2.2861723899841309</v>
       </c>
       <c r="C184" s="0">
-        <v>0.45942300277109194</v>
+        <v>0.45583350674396766</v>
       </c>
       <c r="D184" s="0">
-        <v>0.12403152795097533</v>
+        <v>0.12441372581669918</v>
       </c>
       <c r="E184" s="0">
-        <v>2.2694223807747846</v>
+        <v>2.2730138335366723</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="12">
+      <c r="A185" s="2">
         <v>40269</v>
       </c>
       <c r="B185" s="0">
         <v>2.2067708969116211</v>
       </c>
       <c r="C185" s="0">
-        <v>0.4352962555487091</v>
+        <v>0.43353894991395092</v>
       </c>
       <c r="D185" s="0">
-        <v>0.12254713452651303</v>
+        <v>0.12329940890881476</v>
       </c>
       <c r="E185" s="0">
-        <v>2.1838320509687188</v>
+        <v>2.1885091122629885</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="12">
+      <c r="A186" s="2">
         <v>40299</v>
       </c>
       <c r="B186" s="0">
         <v>2.0035443305969238</v>
       </c>
       <c r="C186" s="0">
-        <v>0.4210030297756247</v>
+        <v>0.42044841639174385</v>
       </c>
       <c r="D186" s="0">
-        <v>0.1223294669401736</v>
+        <v>0.1232274859582384</v>
       </c>
       <c r="E186" s="0">
-        <v>1.9493995260946479</v>
+        <v>1.9463552759948062</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="12">
+      <c r="A187" s="2">
         <v>40330</v>
       </c>
       <c r="B187" s="0">
         <v>1.12156617641449</v>
       </c>
       <c r="C187" s="0">
-        <v>0.40988503693454831</v>
+        <v>0.40982339805239565</v>
       </c>
       <c r="D187" s="0">
-        <v>0.12119620761507936</v>
+        <v>0.12144917972906782</v>
       </c>
       <c r="E187" s="0">
-        <v>1.2161762452460592</v>
+        <v>1.211326693697266</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="12">
+      <c r="A188" s="2">
         <v>40360</v>
       </c>
       <c r="B188" s="0">
         <v>1.340777516365051</v>
       </c>
       <c r="C188" s="0">
-        <v>0.3873093064152241</v>
+        <v>0.38852080784767318</v>
       </c>
       <c r="D188" s="0">
-        <v>0.1194516954525047</v>
+        <v>0.1204223351214706</v>
       </c>
       <c r="E188" s="0">
-        <v>1.316154225485787</v>
+        <v>1.315224261055532</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="12">
+      <c r="A189" s="2">
         <v>40391</v>
       </c>
       <c r="B189" s="0">
         <v>1.150176048278809</v>
       </c>
       <c r="C189" s="0">
-        <v>0.37026355627219187</v>
+        <v>0.37126726249711284</v>
       </c>
       <c r="D189" s="0">
-        <v>0.11798294742019337</v>
+        <v>0.11827151528150484</v>
       </c>
       <c r="E189" s="0">
-        <v>1.1674553322736196</v>
+        <v>1.1615294735700963</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="12">
+      <c r="A190" s="2">
         <v>40422</v>
       </c>
       <c r="B190" s="0">
         <v>1.1183129549026489</v>
       </c>
       <c r="C190" s="0">
-        <v>0.3593714104398994</v>
+        <v>0.36270295907602379</v>
       </c>
       <c r="D190" s="0">
-        <v>0.11639853169744688</v>
+        <v>0.1160923971130919</v>
       </c>
       <c r="E190" s="0">
-        <v>1.1275450088359786</v>
+        <v>1.1258209898851803</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="12">
+      <c r="A191" s="2">
         <v>40452</v>
       </c>
       <c r="B191" s="0">
         <v>1.1666955947875981</v>
       </c>
       <c r="C191" s="0">
-        <v>0.35311026641321375</v>
+        <v>0.35383237595224681</v>
       </c>
       <c r="D191" s="0">
-        <v>0.1149383006008475</v>
+        <v>0.11517159516073885</v>
       </c>
       <c r="E191" s="0">
-        <v>1.1632654531490036</v>
+        <v>1.1624647413597347</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="12">
+      <c r="A192" s="2">
         <v>40483</v>
       </c>
       <c r="B192" s="0">
         <v>1.0845460891723631</v>
       </c>
       <c r="C192" s="0">
-        <v>0.35139415391671247</v>
+        <v>0.35343090506632219</v>
       </c>
       <c r="D192" s="0">
-        <v>0.11377282033663336</v>
+        <v>0.11391954162797607</v>
       </c>
       <c r="E192" s="0">
-        <v>1.132933271736432</v>
+        <v>1.1295636503020385</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="12">
+      <c r="A193" s="2">
         <v>40513</v>
       </c>
       <c r="B193" s="0">
         <v>1.437793016433716</v>
       </c>
       <c r="C193" s="0">
-        <v>0.35507992975386921</v>
+        <v>0.35629161821652811</v>
       </c>
       <c r="D193" s="0">
-        <v>0.11387947429512893</v>
+        <v>0.11350855617100897</v>
       </c>
       <c r="E193" s="0">
-        <v>1.4383769698692248</v>
+        <v>1.4376907361022468</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="12">
+      <c r="A194" s="2">
         <v>40544</v>
       </c>
       <c r="B194" s="0">
         <v>1.700778722763062</v>
       </c>
       <c r="C194" s="0">
-        <v>0.35818095340677408</v>
+        <v>0.35789764805238744</v>
       </c>
       <c r="D194" s="0">
-        <v>0.11237542431653057</v>
+        <v>0.11256793011997104</v>
       </c>
       <c r="E194" s="0">
-        <v>1.7181185627141544</v>
+        <v>1.7173637506829831</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="12">
+      <c r="A195" s="2">
         <v>40575</v>
       </c>
       <c r="B195" s="0">
         <v>2.1248931884765621</v>
       </c>
       <c r="C195" s="0">
-        <v>0.36094092016884372</v>
+        <v>0.36141897309640003</v>
       </c>
       <c r="D195" s="0">
-        <v>0.11282517681878465</v>
+        <v>0.11243744149444675</v>
       </c>
       <c r="E195" s="0">
-        <v>2.1324613440870941</v>
+        <v>2.1338368408425898</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="12">
+      <c r="A196" s="2">
         <v>40603</v>
       </c>
       <c r="B196" s="0">
         <v>2.6192455291748051</v>
       </c>
       <c r="C196" s="0">
-        <v>0.35968885020266056</v>
+        <v>0.35707099504285345</v>
       </c>
       <c r="D196" s="0">
-        <v>0.11219459809876117</v>
+        <v>0.11153462591433885</v>
       </c>
       <c r="E196" s="0">
-        <v>2.6197134943386158</v>
+        <v>2.616116961480369</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="12">
+      <c r="A197" s="2">
         <v>40634</v>
       </c>
       <c r="B197" s="0">
         <v>3.0772354602813721</v>
       </c>
       <c r="C197" s="0">
-        <v>0.34889116464817815</v>
+        <v>0.34993728700145521</v>
       </c>
       <c r="D197" s="0">
-        <v>0.11146363261386737</v>
+        <v>0.1106582735562624</v>
       </c>
       <c r="E197" s="0">
-        <v>3.0639716606978884</v>
+        <v>3.0660127534534554</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="12">
+      <c r="A198" s="2">
         <v>40664</v>
       </c>
       <c r="B198" s="0">
         <v>3.458975076675415</v>
       </c>
       <c r="C198" s="0">
-        <v>0.33605020127454943</v>
+        <v>0.33500776177124514</v>
       </c>
       <c r="D198" s="0">
-        <v>0.11074497115448537</v>
+        <v>0.11060199912163454</v>
       </c>
       <c r="E198" s="0">
-        <v>3.4207617187476997</v>
+        <v>3.4223781806633546</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="12">
+      <c r="A199" s="2">
         <v>40695</v>
       </c>
       <c r="B199" s="0">
         <v>3.5023155212402339</v>
       </c>
       <c r="C199" s="0">
-        <v>0.31883305244816867</v>
+        <v>0.31997787364722069</v>
       </c>
       <c r="D199" s="0">
-        <v>0.11086776148079745</v>
+        <v>0.10975261748263862</v>
       </c>
       <c r="E199" s="0">
-        <v>3.5033373097022498</v>
+        <v>3.4985201998925857</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="12">
+      <c r="A200" s="2">
         <v>40725</v>
       </c>
       <c r="B200" s="0">
         <v>3.5798850059509282</v>
       </c>
       <c r="C200" s="0">
-        <v>0.30739817714357354</v>
+        <v>0.30813370798874229</v>
       </c>
       <c r="D200" s="0">
-        <v>0.11030041946570573</v>
+        <v>0.10820529125619237</v>
       </c>
       <c r="E200" s="0">
-        <v>3.5908217821901269</v>
+        <v>3.5903032822468672</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="12">
+      <c r="A201" s="2">
         <v>40756</v>
       </c>
       <c r="B201" s="0">
         <v>3.7549953460693359</v>
       </c>
       <c r="C201" s="0">
-        <v>0.29920030127572006</v>
+        <v>0.30129188752005714</v>
       </c>
       <c r="D201" s="0">
-        <v>0.11068269564258876</v>
+        <v>0.10865047530973659</v>
       </c>
       <c r="E201" s="0">
-        <v>3.7335453743786693</v>
+        <v>3.7335735257806628</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="12">
+      <c r="A202" s="2">
         <v>40787</v>
       </c>
       <c r="B202" s="0">
         <v>3.8126246929168701</v>
       </c>
       <c r="C202" s="0">
-        <v>0.29563911968164447</v>
+        <v>0.29587122528734616</v>
       </c>
       <c r="D202" s="0">
-        <v>0.11098713122373294</v>
+        <v>0.1089329583659405</v>
       </c>
       <c r="E202" s="0">
-        <v>3.7646707191739477</v>
+        <v>3.7649633238607993</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="12">
+      <c r="A203" s="2">
         <v>40817</v>
       </c>
       <c r="B203" s="0">
         <v>3.5222663879394531</v>
       </c>
       <c r="C203" s="0">
-        <v>0.29372085524750779</v>
+        <v>0.29436484544254748</v>
       </c>
       <c r="D203" s="0">
-        <v>0.10988753246891066</v>
+        <v>0.10945777256710498</v>
       </c>
       <c r="E203" s="0">
-        <v>3.5409262570810354</v>
+        <v>3.5370243859421242</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="12">
+      <c r="A204" s="2">
         <v>40848</v>
       </c>
       <c r="B204" s="0">
         <v>3.4514367580413818</v>
       </c>
       <c r="C204" s="0">
-        <v>0.29386966579348406</v>
+        <v>0.29298182988201238</v>
       </c>
       <c r="D204" s="0">
-        <v>0.10922789945923123</v>
+        <v>0.10964253126198639</v>
       </c>
       <c r="E204" s="0">
-        <v>3.4169720236344929</v>
+        <v>3.418279862522366</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="12">
+      <c r="A205" s="2">
         <v>40878</v>
       </c>
       <c r="B205" s="0">
         <v>3.0620701313018799</v>
       </c>
       <c r="C205" s="0">
-        <v>0.29463899690384909</v>
+        <v>0.29584821638330244</v>
       </c>
       <c r="D205" s="0">
-        <v>0.10938143273068809</v>
+        <v>0.10968066723624333</v>
       </c>
       <c r="E205" s="0">
-        <v>3.0997684795919294</v>
+        <v>3.1009711197900964</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="12">
+      <c r="A206" s="2">
         <v>40909</v>
       </c>
       <c r="B206" s="0">
         <v>3.0087659358978271</v>
       </c>
       <c r="C206" s="0">
-        <v>0.29294181403447339</v>
+        <v>0.29239881993804584</v>
       </c>
       <c r="D206" s="0">
-        <v>0.1101047721195289</v>
+        <v>0.1100552141864774</v>
       </c>
       <c r="E206" s="0">
-        <v>3.0042720762964721</v>
+        <v>3.0045354037753493</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="12">
+      <c r="A207" s="2">
         <v>40940</v>
       </c>
       <c r="B207" s="0">
         <v>2.898178339004517</v>
       </c>
       <c r="C207" s="0">
-        <v>0.29553975309906644</v>
+        <v>0.29262521392522578</v>
       </c>
       <c r="D207" s="0">
-        <v>0.11041496498227481</v>
+        <v>0.11060413995487343</v>
       </c>
       <c r="E207" s="0">
-        <v>2.8693326726357395</v>
+        <v>2.8690115815053181</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="12">
+      <c r="A208" s="2">
         <v>40969</v>
       </c>
       <c r="B208" s="0">
         <v>2.5828759670257568</v>
       </c>
       <c r="C208" s="0">
-        <v>0.29829856167165669</v>
+        <v>0.29813123309376077</v>
       </c>
       <c r="D208" s="0">
-        <v>0.11042217386492523</v>
+        <v>0.11092819633609645</v>
       </c>
       <c r="E208" s="0">
-        <v>2.5777934590098623</v>
+        <v>2.5785493462979665</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="12">
+      <c r="A209" s="2">
         <v>41000</v>
       </c>
       <c r="B209" s="0">
         <v>2.2731606960296631</v>
       </c>
       <c r="C209" s="0">
-        <v>0.3014794096397283</v>
+        <v>0.30087072864572428</v>
       </c>
       <c r="D209" s="0">
-        <v>0.11189218383262586</v>
+        <v>0.11163210694658914</v>
       </c>
       <c r="E209" s="0">
-        <v>2.2528803949067631</v>
+        <v>2.2522576511468233</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="12">
+      <c r="A210" s="2">
         <v>41030</v>
       </c>
       <c r="B210" s="0">
         <v>1.7379418611526489</v>
       </c>
       <c r="C210" s="0">
-        <v>0.30292944597805116</v>
+        <v>0.30042413240286658</v>
       </c>
       <c r="D210" s="0">
-        <v>0.11250651846718975</v>
+        <v>0.11270350504680182</v>
       </c>
       <c r="E210" s="0">
-        <v>1.793323708689166</v>
+        <v>1.7931421142959889</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="12">
+      <c r="A211" s="2">
         <v>41061</v>
       </c>
       <c r="B211" s="0">
         <v>1.653871536254883</v>
       </c>
       <c r="C211" s="0">
-        <v>0.29592126803033925</v>
+        <v>0.29342962809292994</v>
       </c>
       <c r="D211" s="0">
-        <v>0.11379930879606828</v>
+        <v>0.11349699046962591</v>
       </c>
       <c r="E211" s="0">
-        <v>1.6546337963091777</v>
+        <v>1.6571041441726222</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="12">
+      <c r="A212" s="2">
         <v>41091</v>
       </c>
       <c r="B212" s="0">
         <v>1.4175078868865969</v>
       </c>
       <c r="C212" s="0">
-        <v>0.2918363793610782</v>
+        <v>0.29083222493231414</v>
       </c>
       <c r="D212" s="0">
-        <v>0.11367432578641712</v>
+        <v>0.11500770215891565</v>
       </c>
       <c r="E212" s="0">
-        <v>1.4935801534719868</v>
+        <v>1.4933593151917506</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="12">
+      <c r="A213" s="2">
         <v>41122</v>
       </c>
       <c r="B213" s="0">
         <v>1.6859333515167241</v>
       </c>
       <c r="C213" s="0">
-        <v>0.28972268984969085</v>
+        <v>0.28697641617618974</v>
       </c>
       <c r="D213" s="0">
-        <v>0.11442182518376426</v>
+        <v>0.115059359751776</v>
       </c>
       <c r="E213" s="0">
-        <v>1.697212993220151</v>
+        <v>1.6963951085881885</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="12">
+      <c r="A214" s="2">
         <v>41153</v>
       </c>
       <c r="B214" s="0">
         <v>1.9497165679931641</v>
       </c>
       <c r="C214" s="0">
-        <v>0.28633629749229089</v>
+        <v>0.28516542439439496</v>
       </c>
       <c r="D214" s="0">
-        <v>0.11456578006980102</v>
+        <v>0.11512982567230079</v>
       </c>
       <c r="E214" s="0">
-        <v>1.9291071161530837</v>
+        <v>1.9281885136404597</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="12">
+      <c r="A215" s="2">
         <v>41183</v>
       </c>
       <c r="B215" s="0">
         <v>2.155678272247314</v>
       </c>
       <c r="C215" s="0">
-        <v>0.28436571067436789</v>
+        <v>0.28203312890651089</v>
       </c>
       <c r="D215" s="0">
-        <v>0.11543931970099212</v>
+        <v>0.11645186436542043</v>
       </c>
       <c r="E215" s="0">
-        <v>2.0737669392425224</v>
+        <v>2.0710581521888187</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="12">
+      <c r="A216" s="2">
         <v>41214</v>
       </c>
       <c r="B216" s="0">
         <v>1.796013712882996</v>
       </c>
       <c r="C216" s="0">
-        <v>0.28229739330941184</v>
+        <v>0.28278515903301527</v>
       </c>
       <c r="D216" s="0">
-        <v>0.11636848716990195</v>
+        <v>0.11674793986382931</v>
       </c>
       <c r="E216" s="0">
-        <v>1.8307331359065013</v>
+        <v>1.8300595474503754</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="12">
+      <c r="A217" s="2">
         <v>41244</v>
       </c>
       <c r="B217" s="0">
         <v>1.759498715400696</v>
       </c>
       <c r="C217" s="0">
-        <v>0.27988927346289916</v>
+        <v>0.28104692107536156</v>
       </c>
       <c r="D217" s="0">
-        <v>0.11647234786520547</v>
+        <v>0.1171856876729257</v>
       </c>
       <c r="E217" s="0">
-        <v>1.7669385906046704</v>
+        <v>1.77068329087589</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="12">
+      <c r="A218" s="2">
         <v>41275</v>
       </c>
       <c r="B218" s="0">
         <v>1.6840642690658569</v>
       </c>
       <c r="C218" s="0">
-        <v>0.28273654788611857</v>
+        <v>0.28221418846464574</v>
       </c>
       <c r="D218" s="0">
-        <v>0.11752083584262504</v>
+        <v>0.11854039677366365</v>
       </c>
       <c r="E218" s="0">
-        <v>1.7294386862995412</v>
+        <v>1.7237351545922461</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="12">
+      <c r="A219" s="2">
         <v>41306</v>
       </c>
       <c r="B219" s="0">
         <v>2.0181412696838379</v>
       </c>
       <c r="C219" s="0">
-        <v>0.28813967552604558</v>
+        <v>0.28877582483816755</v>
       </c>
       <c r="D219" s="0">
-        <v>0.11948309229316473</v>
+        <v>0.11963964848644094</v>
       </c>
       <c r="E219" s="0">
-        <v>1.9052687273029199</v>
+        <v>1.9062086673264922</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="12">
+      <c r="A220" s="2">
         <v>41334</v>
       </c>
       <c r="B220" s="0">
         <v>1.51874315738678</v>
       </c>
       <c r="C220" s="0">
-        <v>0.29439186562909747</v>
+        <v>0.29588137840096157</v>
       </c>
       <c r="D220" s="0">
-        <v>0.11992674036996442</v>
+        <v>0.11975373782416401</v>
       </c>
       <c r="E220" s="0">
-        <v>1.5389854797623372</v>
+        <v>1.5373252186628981</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="12">
+      <c r="A221" s="2">
         <v>41365</v>
       </c>
       <c r="B221" s="0">
         <v>1.1388083696365361</v>
       </c>
       <c r="C221" s="0">
-        <v>0.29549886474750819</v>
+        <v>0.29673478409407272</v>
       </c>
       <c r="D221" s="0">
-        <v>0.12031803005628997</v>
+        <v>0.12054269057240674</v>
       </c>
       <c r="E221" s="0">
-        <v>1.2366823751104872</v>
+        <v>1.2364960210858769</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="12">
+      <c r="A222" s="2">
         <v>41395</v>
       </c>
       <c r="B222" s="0">
         <v>1.3903923034667971</v>
       </c>
       <c r="C222" s="0">
-        <v>0.29576379685665438</v>
+        <v>0.29693732296436814</v>
       </c>
       <c r="D222" s="0">
-        <v>0.1199959366258626</v>
+        <v>0.12081035639605041</v>
       </c>
       <c r="E222" s="0">
-        <v>1.4143556754000466</v>
+        <v>1.4149776183709117</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="12">
+      <c r="A223" s="2">
         <v>41426</v>
       </c>
       <c r="B223" s="0">
         <v>1.715795755386353</v>
       </c>
       <c r="C223" s="0">
-        <v>0.29812172794857583</v>
+        <v>0.29759433865125856</v>
       </c>
       <c r="D223" s="0">
-        <v>0.12005147634538751</v>
+        <v>0.12058060718164748</v>
       </c>
       <c r="E223" s="0">
-        <v>1.6826337170011187</v>
+        <v>1.6802834227170451</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="12">
+      <c r="A224" s="2">
         <v>41456</v>
       </c>
       <c r="B224" s="0">
         <v>1.8854707479476931</v>
       </c>
       <c r="C224" s="0">
-        <v>0.29718384951559579</v>
+        <v>0.29728933414879721</v>
       </c>
       <c r="D224" s="0">
-        <v>0.12009259523594185</v>
+        <v>0.1209834896790026</v>
       </c>
       <c r="E224" s="0">
-        <v>1.8047894525005916</v>
+        <v>1.8009839051373073</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="12">
+      <c r="A225" s="2">
         <v>41487</v>
       </c>
       <c r="B225" s="0">
         <v>1.5388070344924929</v>
       </c>
       <c r="C225" s="0">
-        <v>0.30011567385418736</v>
+        <v>0.30077479679037999</v>
       </c>
       <c r="D225" s="0">
-        <v>0.11994002662258064</v>
+        <v>0.12061516869714803</v>
       </c>
       <c r="E225" s="0">
-        <v>1.5171632554266634</v>
+        <v>1.5147181614390768</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="12">
+      <c r="A226" s="2">
         <v>41518</v>
       </c>
       <c r="B226" s="0">
         <v>1.09473717212677</v>
       </c>
       <c r="C226" s="0">
-        <v>0.30239341245553686</v>
+        <v>0.29997588905566674</v>
       </c>
       <c r="D226" s="0">
-        <v>0.11907471610659509</v>
+        <v>0.12133521688790075</v>
       </c>
       <c r="E226" s="0">
-        <v>1.1433748701971531</v>
+        <v>1.1399716524825139</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="12">
+      <c r="A227" s="2">
         <v>41548</v>
       </c>
       <c r="B227" s="0">
         <v>0.87680166959762573</v>
       </c>
       <c r="C227" s="0">
-        <v>0.29948339967011728</v>
+        <v>0.29879983799471571</v>
       </c>
       <c r="D227" s="0">
-        <v>0.11972860863510809</v>
+        <v>0.12179179948073116</v>
       </c>
       <c r="E227" s="0">
-        <v>0.96770934254954444</v>
+        <v>0.97202519237066776</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="12">
+      <c r="A228" s="2">
         <v>41579</v>
       </c>
       <c r="B228" s="0">
         <v>1.2328759431838989</v>
       </c>
       <c r="C228" s="0">
-        <v>0.29929342617358856</v>
+        <v>0.29814392959079228</v>
       </c>
       <c r="D228" s="0">
-        <v>0.11977641735216155</v>
+        <v>0.12036740956794267</v>
       </c>
       <c r="E228" s="0">
-        <v>1.2326665260409366</v>
+        <v>1.2340656746387864</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="12">
+      <c r="A229" s="2">
         <v>41609</v>
       </c>
       <c r="B229" s="0">
         <v>1.5128388404846189</v>
       </c>
       <c r="C229" s="0">
-        <v>0.2960676795020758</v>
+        <v>0.29448037864309823</v>
       </c>
       <c r="D229" s="0">
-        <v>0.11988811621735479</v>
+        <v>0.11967480565733987</v>
       </c>
       <c r="E229" s="0">
-        <v>1.4681827113768411</v>
+        <v>1.4693867649161807</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="12">
+      <c r="A230" s="2">
         <v>41640</v>
       </c>
       <c r="B230" s="0">
         <v>1.5577559471130371</v>
       </c>
       <c r="C230" s="0">
-        <v>0.29448807480149675</v>
+        <v>0.29260927930328767</v>
       </c>
       <c r="D230" s="0">
-        <v>0.119637537771779</v>
+        <v>0.11988631245870965</v>
       </c>
       <c r="E230" s="0">
-        <v>1.503111712456457</v>
+        <v>1.5066109861608203</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="12">
+      <c r="A231" s="2">
         <v>41671</v>
       </c>
       <c r="B231" s="0">
         <v>1.1204749345779419</v>
       </c>
       <c r="C231" s="0">
-        <v>0.29500363875699387</v>
+        <v>0.2939996776132634</v>
       </c>
       <c r="D231" s="0">
-        <v>0.11983740116832567</v>
+        <v>0.12009960389430575</v>
       </c>
       <c r="E231" s="0">
-        <v>1.2414908145505223</v>
+        <v>1.2423405794790245</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="12">
+      <c r="A232" s="2">
         <v>41699</v>
       </c>
       <c r="B232" s="0">
         <v>1.6126959323883061</v>
       </c>
       <c r="C232" s="0">
-        <v>0.29629814289039846</v>
+        <v>0.294349057335067</v>
       </c>
       <c r="D232" s="0">
-        <v>0.11813960961755424</v>
+        <v>0.11821540840988394</v>
       </c>
       <c r="E232" s="0">
-        <v>1.612826705591019</v>
+        <v>1.6137867117190083</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="12">
+      <c r="A233" s="2">
         <v>41730</v>
       </c>
       <c r="B233" s="0">
         <v>2.0151276588439941</v>
       </c>
       <c r="C233" s="0">
-        <v>0.29230733750653459</v>
+        <v>0.29138788687062728</v>
       </c>
       <c r="D233" s="0">
-        <v>0.11766686690517865</v>
+        <v>0.11820881238988661</v>
       </c>
       <c r="E233" s="0">
-        <v>1.9760170454430426</v>
+        <v>1.9687650636499423</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="12">
+      <c r="A234" s="2">
         <v>41760</v>
       </c>
       <c r="B234" s="0">
         <v>2.1669449806213379</v>
       </c>
       <c r="C234" s="0">
-        <v>0.28213891786628653</v>
+        <v>0.2842374017661608</v>
       </c>
       <c r="D234" s="0">
-        <v>0.11697434088830896</v>
+        <v>0.11680041262781413</v>
       </c>
       <c r="E234" s="0">
-        <v>2.1182225049520538</v>
+        <v>2.1176517480351795</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="12">
+      <c r="A235" s="2">
         <v>41791</v>
       </c>
       <c r="B235" s="0">
         <v>2.058979749679565</v>
       </c>
       <c r="C235" s="0">
-        <v>0.27644641152123517</v>
+        <v>0.27782684793859475</v>
       </c>
       <c r="D235" s="0">
-        <v>0.11637352397206979</v>
+        <v>0.11680088296089541</v>
       </c>
       <c r="E235" s="0">
-        <v>2.04820957434936</v>
+        <v>2.0469183834562328</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="12">
+      <c r="A236" s="2">
         <v>41821</v>
       </c>
       <c r="B236" s="0">
         <v>1.9742410182952881</v>
       </c>
       <c r="C236" s="0">
-        <v>0.27475900656642455</v>
+        <v>0.27569369396063925</v>
       </c>
       <c r="D236" s="0">
-        <v>0.1162461984939015</v>
+        <v>0.11602303748977147</v>
       </c>
       <c r="E236" s="0">
-        <v>1.9486477973117697</v>
+        <v>1.9501009224990113</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="12">
+      <c r="A237" s="2">
         <v>41852</v>
       </c>
       <c r="B237" s="0">
         <v>1.7151039838790889</v>
       </c>
       <c r="C237" s="0">
-        <v>0.275136698125093</v>
+        <v>0.27474245711182971</v>
       </c>
       <c r="D237" s="0">
-        <v>0.11548050189024306</v>
+        <v>0.11590194413240872</v>
       </c>
       <c r="E237" s="0">
-        <v>1.7406667281789083</v>
+        <v>1.7443045130583399</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="12">
+      <c r="A238" s="2">
         <v>41883</v>
       </c>
       <c r="B238" s="0">
         <v>1.684050321578979</v>
       </c>
       <c r="C238" s="0">
-        <v>0.27588345537679065</v>
+        <v>0.27412691831119529</v>
       </c>
       <c r="D238" s="0">
-        <v>0.11583222056855708</v>
+        <v>0.11541508341452754</v>
       </c>
       <c r="E238" s="0">
-        <v>1.6688703018349194</v>
+        <v>1.6731665336494581</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="12">
+      <c r="A239" s="2">
         <v>41913</v>
       </c>
       <c r="B239" s="0">
         <v>1.609535813331604</v>
       </c>
       <c r="C239" s="0">
-        <v>0.27679085968322142</v>
+        <v>0.27667269933965954</v>
       </c>
       <c r="D239" s="0">
-        <v>0.11562644862971139</v>
+        <v>0.11611290068697465</v>
       </c>
       <c r="E239" s="0">
-        <v>1.5575691687291973</v>
+        <v>1.5535358191602149</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="12">
+      <c r="A240" s="2">
         <v>41944</v>
       </c>
       <c r="B240" s="0">
         <v>1.2315230369567871</v>
       </c>
       <c r="C240" s="0">
-        <v>0.2835807234334618</v>
+        <v>0.28201623565767814</v>
       </c>
       <c r="D240" s="0">
-        <v>0.11607264996569137</v>
+        <v>0.11557347928685741</v>
       </c>
       <c r="E240" s="0">
-        <v>1.1881196443061146</v>
+        <v>1.1890205935387366</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="12">
+      <c r="A241" s="2">
         <v>41974</v>
       </c>
       <c r="B241" s="0">
         <v>0.65312343835830688</v>
       </c>
       <c r="C241" s="0">
-        <v>0.28534458392423878</v>
+        <v>0.28315745366635453</v>
       </c>
       <c r="D241" s="0">
-        <v>0.11633781676884629</v>
+        <v>0.11546375487202995</v>
       </c>
       <c r="E241" s="0">
-        <v>0.62113722637968927</v>
+        <v>0.6203528303293675</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="12">
+      <c r="A242" s="2">
         <v>42005</v>
       </c>
       <c r="B242" s="0">
         <v>-0.22993114590644839</v>
       </c>
       <c r="C242" s="0">
-        <v>0.27853665086359125</v>
+        <v>0.27703763122595154</v>
       </c>
       <c r="D242" s="0">
-        <v>0.11556827260207239</v>
+        <v>0.1154626170361189</v>
       </c>
       <c r="E242" s="0">
-        <v>-0.082936772328698893</v>
+        <v>-0.080643038575660242</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="12">
+      <c r="A243" s="2">
         <v>42036</v>
       </c>
       <c r="B243" s="0">
         <v>-0.087032243609428406</v>
       </c>
       <c r="C243" s="0">
-        <v>0.26301632526155205</v>
+        <v>0.26111635106106046</v>
       </c>
       <c r="D243" s="0">
-        <v>0.11430317473038783</v>
+        <v>0.11406854521046528</v>
       </c>
       <c r="E243" s="0">
-        <v>-0.074456812253202553</v>
+        <v>-0.072693135556931132</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="12">
+      <c r="A244" s="2">
         <v>42064</v>
       </c>
       <c r="B244" s="0">
         <v>-0.022032111883163449</v>
       </c>
       <c r="C244" s="0">
-        <v>0.25103429493092672</v>
+        <v>0.24773924159539745</v>
       </c>
       <c r="D244" s="0">
-        <v>0.11356275409363419</v>
+        <v>0.11343861894492006</v>
       </c>
       <c r="E244" s="0">
-        <v>-0.033669921745324238</v>
+        <v>-0.032668639519212839</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="12">
+      <c r="A245" s="2">
         <v>42095</v>
       </c>
       <c r="B245" s="0">
         <v>-0.10403192043304441</v>
       </c>
       <c r="C245" s="0">
-        <v>0.2419582267812338</v>
+        <v>0.24079368484025704</v>
       </c>
       <c r="D245" s="0">
-        <v>0.11270992450056344</v>
+        <v>0.11260494267682586</v>
       </c>
       <c r="E245" s="0">
-        <v>-0.066290412003534804</v>
+        <v>-0.066447859804577458</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="12">
+      <c r="A246" s="2">
         <v>42125</v>
       </c>
       <c r="B246" s="0">
         <v>0.035036515444517143</v>
       </c>
       <c r="C246" s="0">
-        <v>0.23683869610001218</v>
+        <v>0.2348433652730334</v>
       </c>
       <c r="D246" s="0">
-        <v>0.112219728224927</v>
+        <v>0.11233365274717207</v>
       </c>
       <c r="E246" s="0">
-        <v>0.044322356314434153</v>
+        <v>0.04164896799943385</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="12">
+      <c r="A247" s="2">
         <v>42156</v>
       </c>
       <c r="B247" s="0">
         <v>0.17956964671611789</v>
       </c>
       <c r="C247" s="0">
-        <v>0.23354985289584795</v>
+        <v>0.2317117628315106</v>
       </c>
       <c r="D247" s="0">
-        <v>0.11183097102412104</v>
+        <v>0.11271698745814979</v>
       </c>
       <c r="E247" s="0">
-        <v>0.15934688234931915</v>
+        <v>0.15907065103100848</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="12">
+      <c r="A248" s="2">
         <v>42186</v>
       </c>
       <c r="B248" s="0">
         <v>0.2256842106580734</v>
       </c>
       <c r="C248" s="0">
-        <v>0.23069707455596686</v>
+        <v>0.22861513518879462</v>
       </c>
       <c r="D248" s="0">
-        <v>0.1123321407081575</v>
+        <v>0.11315590119804078</v>
       </c>
       <c r="E248" s="0">
-        <v>0.20846311617498703</v>
+        <v>0.20982236074454308</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="12">
+      <c r="A249" s="2">
         <v>42217</v>
       </c>
       <c r="B249" s="0">
         <v>0.2413029670715332</v>
       </c>
       <c r="C249" s="0">
-        <v>0.2317784947717054</v>
+        <v>0.22923586249035519</v>
       </c>
       <c r="D249" s="0">
-        <v>0.11227637746769777</v>
+        <v>0.11318435504547195</v>
       </c>
       <c r="E249" s="0">
-        <v>0.20616886858749783</v>
+        <v>0.20568021423550809</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="12">
+      <c r="A250" s="2">
         <v>42248</v>
       </c>
       <c r="B250" s="0">
         <v>0.0088413162156939507</v>
       </c>
       <c r="C250" s="0">
-        <v>0.23384905971290276</v>
+        <v>0.23269761407354178</v>
       </c>
       <c r="D250" s="0">
-        <v>0.11268427900489203</v>
+        <v>0.11420822867415274</v>
       </c>
       <c r="E250" s="0">
-        <v>0.075479920361789077</v>
+        <v>0.077648875423824038</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="12">
+      <c r="A251" s="2">
         <v>42278</v>
       </c>
       <c r="B251" s="0">
         <v>0.12762036919593811</v>
       </c>
       <c r="C251" s="0">
-        <v>0.23718880221955851</v>
+        <v>0.23520416219759965</v>
       </c>
       <c r="D251" s="0">
-        <v>0.11267498981792243</v>
+        <v>0.1144140205161681</v>
       </c>
       <c r="E251" s="0">
-        <v>0.1750408607424796</v>
+        <v>0.17426854046539741</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="12">
+      <c r="A252" s="2">
         <v>42309</v>
       </c>
       <c r="B252" s="0">
         <v>0.43631675839424128</v>
       </c>
       <c r="C252" s="0">
-        <v>0.24270012934016627</v>
+        <v>0.24102707786743569</v>
       </c>
       <c r="D252" s="0">
-        <v>0.11294023268578712</v>
+        <v>0.11481383352519899</v>
       </c>
       <c r="E252" s="0">
-        <v>0.4344545261284023</v>
+        <v>0.43612914905888811</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="12">
+      <c r="A253" s="2">
         <v>42339</v>
       </c>
       <c r="B253" s="0">
         <v>0.6387258768081665</v>
       </c>
       <c r="C253" s="0">
-        <v>0.24620447082351998</v>
+        <v>0.2439579643930242</v>
       </c>
       <c r="D253" s="0">
-        <v>0.11389629867325116</v>
+        <v>0.11533175274037519</v>
       </c>
       <c r="E253" s="0">
-        <v>0.67661448103960531</v>
+        <v>0.67507163141649151</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="12">
+      <c r="A254" s="2">
         <v>42370</v>
       </c>
       <c r="B254" s="0">
         <v>1.237501978874207</v>
       </c>
       <c r="C254" s="0">
-        <v>0.24827169917647107</v>
+        <v>0.24820427280477342</v>
       </c>
       <c r="D254" s="0">
-        <v>0.11445772103541961</v>
+        <v>0.11681639661329349</v>
       </c>
       <c r="E254" s="0">
-        <v>1.0854571640485557</v>
+        <v>1.0825730739001442</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="12">
+      <c r="A255" s="2">
         <v>42401</v>
       </c>
       <c r="B255" s="0">
         <v>0.84727901220321655</v>
       </c>
       <c r="C255" s="0">
-        <v>0.24433779307820169</v>
+        <v>0.244540264234093</v>
       </c>
       <c r="D255" s="0">
-        <v>0.11376366617388575</v>
+        <v>0.11556732547055903</v>
       </c>
       <c r="E255" s="0">
-        <v>0.9006668542513907</v>
+        <v>0.89854329887348205</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="12">
+      <c r="A256" s="2">
         <v>42430</v>
       </c>
       <c r="B256" s="0">
         <v>0.89161777496337891</v>
       </c>
       <c r="C256" s="0">
-        <v>0.24080748865415397</v>
+        <v>0.23964464728943613</v>
       </c>
       <c r="D256" s="0">
-        <v>0.11406562177237506</v>
+        <v>0.11472895071677805</v>
       </c>
       <c r="E256" s="0">
-        <v>0.934581586072182</v>
+        <v>0.93153356249529318</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="12">
+      <c r="A257" s="2">
         <v>42461</v>
       </c>
       <c r="B257" s="0">
         <v>1.1726275682449341</v>
       </c>
       <c r="C257" s="0">
-        <v>0.24047856582383886</v>
+        <v>0.24044704455801388</v>
       </c>
       <c r="D257" s="0">
-        <v>0.11343958618401473</v>
+        <v>0.11408653811615133</v>
       </c>
       <c r="E257" s="0">
-        <v>1.1149472168986256</v>
+        <v>1.112831169127964</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="12">
+      <c r="A258" s="2">
         <v>42491</v>
       </c>
       <c r="B258" s="0">
         <v>1.0784763097763059</v>
       </c>
       <c r="C258" s="0">
-        <v>0.23904561003382829</v>
+        <v>0.23869208612112386</v>
       </c>
       <c r="D258" s="0">
-        <v>0.1131377510641908</v>
+        <v>0.11393546912680777</v>
       </c>
       <c r="E258" s="0">
-        <v>1.0789369034221892</v>
+        <v>1.0765731003028085</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="12">
+      <c r="A259" s="2">
         <v>42522</v>
       </c>
       <c r="B259" s="0">
         <v>1.079287528991699</v>
       </c>
       <c r="C259" s="0">
-        <v>0.24038790509873492</v>
+        <v>0.23971816702950924</v>
       </c>
       <c r="D259" s="0">
-        <v>0.11264571415864</v>
+        <v>0.1129568902345002</v>
       </c>
       <c r="E259" s="0">
-        <v>1.0625442081741245</v>
+        <v>1.0564523380109565</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="12">
+      <c r="A260" s="2">
         <v>42552</v>
       </c>
       <c r="B260" s="0">
         <v>0.86836391687393188</v>
       </c>
       <c r="C260" s="0">
-        <v>0.24386948920839838</v>
+        <v>0.24350104345816082</v>
       </c>
       <c r="D260" s="0">
-        <v>0.1128589466591501</v>
+        <v>0.11314582928343581</v>
       </c>
       <c r="E260" s="0">
-        <v>0.94268330383506704</v>
+        <v>0.94748963888927595</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="12">
+      <c r="A261" s="2">
         <v>42583</v>
       </c>
       <c r="B261" s="0">
         <v>1.0553131103515621</v>
       </c>
       <c r="C261" s="0">
-        <v>0.24991704953068461</v>
+        <v>0.24912625566303825</v>
       </c>
       <c r="D261" s="0">
-        <v>0.11220350736793434</v>
+        <v>0.11269583171973946</v>
       </c>
       <c r="E261" s="0">
-        <v>1.1108227857733155</v>
+        <v>1.1083879861214738</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="12">
+      <c r="A262" s="2">
         <v>42614</v>
       </c>
       <c r="B262" s="0">
         <v>1.548642039299011</v>
       </c>
       <c r="C262" s="0">
-        <v>0.25545098489359686</v>
+        <v>0.25486155073577216</v>
       </c>
       <c r="D262" s="0">
-        <v>0.11162400829573252</v>
+        <v>0.11240139751195363</v>
       </c>
       <c r="E262" s="0">
-        <v>1.4955363664130763</v>
+        <v>1.497265847765203</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="12">
+      <c r="A263" s="2">
         <v>42644</v>
       </c>
       <c r="B263" s="0">
         <v>1.685923099517822</v>
       </c>
       <c r="C263" s="0">
-        <v>0.2578550843040941</v>
+        <v>0.25703110162763676</v>
       </c>
       <c r="D263" s="0">
-        <v>0.11101826081439202</v>
+        <v>0.11115004190551012</v>
       </c>
       <c r="E263" s="0">
-        <v>1.6678183101516941</v>
+        <v>1.6655689119393098</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="12">
+      <c r="A264" s="2">
         <v>42675</v>
       </c>
       <c r="B264" s="0">
         <v>1.6843346357345581</v>
       </c>
       <c r="C264" s="0">
-        <v>0.26017472660010493</v>
+        <v>0.26008980874693488</v>
       </c>
       <c r="D264" s="0">
-        <v>0.11063507614350074</v>
+        <v>0.11170670726436521</v>
       </c>
       <c r="E264" s="0">
-        <v>1.7385422062878737</v>
+        <v>1.7386374235432316</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="12">
+      <c r="A265" s="2">
         <v>42705</v>
       </c>
       <c r="B265" s="0">
         <v>2.0507955551147461</v>
       </c>
       <c r="C265" s="0">
-        <v>0.26475440604302247</v>
+        <v>0.26491542144322183</v>
       </c>
       <c r="D265" s="0">
-        <v>0.11064731699759364</v>
+        <v>0.11087336182640019</v>
       </c>
       <c r="E265" s="0">
-        <v>2.0662645560531807</v>
+        <v>2.063227737151804</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="12">
+      <c r="A266" s="2">
         <v>42736</v>
       </c>
       <c r="B266" s="0">
         <v>2.510394811630249</v>
       </c>
       <c r="C266" s="0">
-        <v>0.26646809085316925</v>
+        <v>0.2673618683089572</v>
       </c>
       <c r="D266" s="0">
-        <v>0.11089354828134983</v>
+        <v>0.11113458439137855</v>
       </c>
       <c r="E266" s="0">
-        <v>2.4697487871141712</v>
+        <v>2.4661826414386505</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="12">
+      <c r="A267" s="2">
         <v>42767</v>
       </c>
       <c r="B267" s="0">
         <v>2.8103609085083008</v>
       </c>
       <c r="C267" s="0">
-        <v>0.26430372589991757</v>
+        <v>0.26366599309935879</v>
       </c>
       <c r="D267" s="0">
-        <v>0.11144180654143826</v>
+        <v>0.11118831741023096</v>
       </c>
       <c r="E267" s="0">
-        <v>2.6978826570885688</v>
+        <v>2.6990984755832721</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="12">
+      <c r="A268" s="2">
         <v>42795</v>
       </c>
       <c r="B268" s="0">
         <v>2.4411947727203369</v>
       </c>
       <c r="C268" s="0">
-        <v>0.26184787632078732</v>
+        <v>0.2605570534664623</v>
       </c>
       <c r="D268" s="0">
-        <v>0.10949811196190692</v>
+        <v>0.10938529703103372</v>
       </c>
       <c r="E268" s="0">
-        <v>2.4310001312002032</v>
+        <v>2.4287906059010727</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="12">
+      <c r="A269" s="2">
         <v>42826</v>
       </c>
       <c r="B269" s="0">
         <v>2.1762187480926509</v>
       </c>
       <c r="C269" s="0">
-        <v>0.25459289844407174</v>
+        <v>0.25476562559197946</v>
       </c>
       <c r="D269" s="0">
-        <v>0.10895028604979178</v>
+        <v>0.10867150218903733</v>
       </c>
       <c r="E269" s="0">
-        <v>2.1659457210667372</v>
+        <v>2.1653176565657031</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="12">
+      <c r="A270" s="2">
         <v>42856</v>
       </c>
       <c r="B270" s="0">
         <v>1.8563393354415889</v>
       </c>
       <c r="C270" s="0">
-        <v>0.24781136166772311</v>
+        <v>0.24697460082816253</v>
       </c>
       <c r="D270" s="0">
-        <v>0.1079854951647265</v>
+        <v>0.10763733779409634</v>
       </c>
       <c r="E270" s="0">
-        <v>1.8829539853220973</v>
+        <v>1.8818481736809893</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="12">
+      <c r="A271" s="2">
         <v>42887</v>
       </c>
       <c r="B271" s="0">
         <v>1.640563368797302</v>
       </c>
       <c r="C271" s="0">
-        <v>0.23681610024336333</v>
+        <v>0.23661566707297707</v>
       </c>
       <c r="D271" s="0">
-        <v>0.10787273010604614</v>
+        <v>0.10743753689657531</v>
       </c>
       <c r="E271" s="0">
-        <v>1.7092280978347225</v>
+        <v>1.7074069123024938</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="12">
+      <c r="A272" s="2">
         <v>42917</v>
       </c>
       <c r="B272" s="0">
         <v>1.7251065969467161</v>
       </c>
       <c r="C272" s="0">
-        <v>0.22775101598566197</v>
+        <v>0.22687692119580935</v>
       </c>
       <c r="D272" s="0">
-        <v>0.10705941768814664</v>
+        <v>0.10644505302941568</v>
       </c>
       <c r="E272" s="0">
-        <v>1.7633960604938896</v>
+        <v>1.7651713518784775</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="12">
+      <c r="A273" s="2">
         <v>42948</v>
       </c>
       <c r="B273" s="0">
         <v>1.92812180519104</v>
       </c>
       <c r="C273" s="0">
-        <v>0.22121476798518244</v>
+        <v>0.21992940488533919</v>
       </c>
       <c r="D273" s="0">
-        <v>0.10620532381858197</v>
+        <v>0.10575846523720937</v>
       </c>
       <c r="E273" s="0">
-        <v>1.9339500861491941</v>
+        <v>1.9324123472317751</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="12">
+      <c r="A274" s="2">
         <v>42979</v>
       </c>
       <c r="B274" s="0">
         <v>2.1805663108825679</v>
       </c>
       <c r="C274" s="0">
-        <v>0.21650878738280091</v>
+        <v>0.21424654575789331</v>
       </c>
       <c r="D274" s="0">
-        <v>0.10573269785987816</v>
+        <v>0.10445287957080797</v>
       </c>
       <c r="E274" s="0">
-        <v>2.1119183885754822</v>
+        <v>2.1117374712498593</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="12">
+      <c r="A275" s="2">
         <v>43009</v>
       </c>
       <c r="B275" s="0">
         <v>2.0207617282867432</v>
       </c>
       <c r="C275" s="0">
-        <v>0.20895203431551052</v>
+        <v>0.20706331650604401</v>
       </c>
       <c r="D275" s="0">
-        <v>0.1052196554998486</v>
+        <v>0.104263804772917</v>
       </c>
       <c r="E275" s="0">
-        <v>2.061265567280048</v>
+        <v>2.0631465193757377</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="12">
+      <c r="A276" s="2">
         <v>43040</v>
       </c>
       <c r="B276" s="0">
         <v>2.1724920272827148</v>
       </c>
       <c r="C276" s="0">
-        <v>0.20486615425072652</v>
+        <v>0.2004633789395931</v>
       </c>
       <c r="D276" s="0">
-        <v>0.10478718493583741</v>
+        <v>0.10372411619210734</v>
       </c>
       <c r="E276" s="0">
-        <v>2.1415780375476294</v>
+        <v>2.1431950997413565</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="12">
+      <c r="A277" s="2">
         <v>43070</v>
       </c>
       <c r="B277" s="0">
         <v>2.1299304962158199</v>
       </c>
       <c r="C277" s="0">
-        <v>0.20197830082939608</v>
+        <v>0.19683099049435604</v>
       </c>
       <c r="D277" s="0">
-        <v>0.1047872466492681</v>
+        <v>0.10312785632328644</v>
       </c>
       <c r="E277" s="0">
-        <v>2.1334381501192947</v>
+        <v>2.141840232353462</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="12">
+      <c r="A278" s="2">
         <v>43101</v>
       </c>
       <c r="B278" s="0">
-        <v>2.1037032604217529</v>
+        <v>2.151317834854126</v>
       </c>
       <c r="C278" s="0">
-        <v>0.20141265263518476</v>
+        <v>0.19649244765547227</v>
       </c>
       <c r="D278" s="0">
-        <v>0.10357830066049792</v>
+        <v>0.10321962244738428</v>
       </c>
       <c r="E278" s="0">
-        <v>2.1397749430197175</v>
+        <v>2.1740696159988726</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="12">
+      <c r="A279" s="2">
         <v>43132</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2265839576721191</v>
+        <v>2.263473272323608</v>
       </c>
       <c r="C279" s="0">
-        <v>0.20236535997505822</v>
+        <v>0.19627247566406644</v>
       </c>
       <c r="D279" s="0">
-        <v>0.10424776658455416</v>
+        <v>0.10263321355997612</v>
       </c>
       <c r="E279" s="0">
-        <v>2.2336248773676526</v>
+        <v>2.2641137079994307</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="12">
+      <c r="A280" s="2">
         <v>43160</v>
       </c>
       <c r="B280" s="0">
-        <v>2.3325879573822021</v>
+        <v>2.3309488296508789</v>
       </c>
       <c r="C280" s="0">
-        <v>0.2034297841318361</v>
+        <v>0.19769197804683228</v>
       </c>
       <c r="D280" s="0">
-        <v>0.10460266935234014</v>
+        <v>0.10307344826636652</v>
       </c>
       <c r="E280" s="0">
-        <v>2.3395258617633177</v>
+        <v>2.3522103041224458</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="12">
+      <c r="A281" s="2">
         <v>43191</v>
       </c>
       <c r="B281" s="0">
-        <v>2.4378271102905269</v>
+        <v>2.471001148223877</v>
       </c>
       <c r="C281" s="0">
-        <v>0.20831409967538972</v>
+        <v>0.19923589428147639</v>
       </c>
       <c r="D281" s="0">
-        <v>0.10441105909422282</v>
+        <v>0.10393117066532745</v>
       </c>
       <c r="E281" s="0">
-        <v>2.4724565591038905</v>
+        <v>2.4962600517288944</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="12">
+      <c r="A282" s="2">
         <v>43221</v>
       </c>
       <c r="B282" s="0">
-        <v>2.7765974998474121</v>
+        <v>2.7819256782531738</v>
       </c>
       <c r="C282" s="0">
-        <v>0.21165957186309697</v>
+        <v>0.20296583298355031</v>
       </c>
       <c r="D282" s="0">
-        <v>0.10587106871819907</v>
+        <v>0.10412558920565289</v>
       </c>
       <c r="E282" s="0">
-        <v>2.7202680807736557</v>
+        <v>2.7221021951407605</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="12">
+      <c r="A283" s="2">
         <v>43252</v>
       </c>
       <c r="B283" s="0">
-        <v>2.8485076427459721</v>
+        <v>2.807555198669434</v>
       </c>
       <c r="C283" s="0">
-        <v>0.21369613320854181</v>
+        <v>0.20426860758906293</v>
       </c>
       <c r="D283" s="0">
-        <v>0.10637096138142042</v>
+        <v>0.10445539397247341</v>
       </c>
       <c r="E283" s="0">
-        <v>2.8197655293977379</v>
+        <v>2.7807267259187163</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="12">
+      <c r="A284" s="2">
         <v>43282</v>
       </c>
       <c r="B284" s="0">
-        <v>2.89875316619873</v>
+        <v>2.8541281223297119</v>
       </c>
       <c r="C284" s="0">
-        <v>0.21710008508831055</v>
+        <v>0.20732601316827998</v>
       </c>
       <c r="D284" s="0">
-        <v>0.10677158619151891</v>
+        <v>0.10593092950178948</v>
       </c>
       <c r="E284" s="0">
-        <v>2.8390290566552276</v>
+        <v>2.7942146875285565</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="12">
+      <c r="A285" s="2">
         <v>43313</v>
       </c>
       <c r="B285" s="0">
-        <v>2.677997350692749</v>
+        <v>2.642922163009644</v>
       </c>
       <c r="C285" s="0">
-        <v>0.22307423041012617</v>
+        <v>0.2113553323882037</v>
       </c>
       <c r="D285" s="0">
-        <v>0.1070152438369003</v>
+        <v>0.1069068834095537</v>
       </c>
       <c r="E285" s="0">
-        <v>2.6620209012725375</v>
+        <v>2.6280689726672586</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="12">
+      <c r="A286" s="2">
         <v>43344</v>
       </c>
       <c r="B286" s="0">
-        <v>2.3551852703094478</v>
+        <v>2.3320589065551758</v>
       </c>
       <c r="C286" s="0">
-        <v>0.22842049938488429</v>
+        <v>0.21579143108690479</v>
       </c>
       <c r="D286" s="0">
-        <v>0.10784383682302265</v>
+        <v>0.1075144768571345</v>
       </c>
       <c r="E286" s="0">
-        <v>2.422708033711098</v>
+        <v>2.4007759178143124</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="12">
+      <c r="A287" s="2">
         <v>43374</v>
       </c>
       <c r="B287" s="0">
-        <v>2.5285217761993408</v>
+        <v>2.4920308589935298</v>
       </c>
       <c r="C287" s="0">
-        <v>0.23217194497531077</v>
+        <v>0.21910494996301186</v>
       </c>
       <c r="D287" s="0">
-        <v>0.109234107392916</v>
+        <v>0.10873639708992883</v>
       </c>
       <c r="E287" s="0">
-        <v>2.4486942781103558</v>
+        <v>2.413368276204785</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="12">
+      <c r="A288" s="2">
         <v>43405</v>
       </c>
       <c r="B288" s="0">
-        <v>2.1728057861328121</v>
+        <v>2.1473276615142818</v>
       </c>
       <c r="C288" s="0">
-        <v>0.2379180576993622</v>
+        <v>0.22421050112771476</v>
       </c>
       <c r="D288" s="0">
-        <v>0.10926108305078552</v>
+        <v>0.10901885967557275</v>
       </c>
       <c r="E288" s="0">
-        <v>2.1727400601933375</v>
+        <v>2.1632943270680389</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="12">
+      <c r="A289" s="2">
         <v>43435</v>
       </c>
       <c r="B289" s="0">
-        <v>1.9152165651321409</v>
+        <v>2.0023832321166992</v>
       </c>
       <c r="C289" s="0">
-        <v>0.24164631604937037</v>
+        <v>0.22682828170906616</v>
       </c>
       <c r="D289" s="0">
-        <v>0.10965237106631542</v>
+        <v>0.10946111503691806</v>
       </c>
       <c r="E289" s="0">
-        <v>1.9047888994378903</v>
+        <v>1.971294629729738</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="12">
+      <c r="A290" s="2">
         <v>43466</v>
       </c>
       <c r="B290" s="0">
-        <v>1.498335599899292</v>
+        <v>1.550680875778198</v>
       </c>
       <c r="C290" s="0">
-        <v>0.24422398134788023</v>
+        <v>0.22908877079812592</v>
       </c>
       <c r="D290" s="0">
-        <v>0.11063732671517006</v>
+        <v>0.11033444080792545</v>
       </c>
       <c r="E290" s="0">
-        <v>1.5800289881243637</v>
+        <v>1.6393449310075692</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="12">
+      <c r="A291" s="2">
         <v>43497</v>
       </c>
       <c r="B291" s="0">
-        <v>1.481724619865417</v>
+        <v>1.520063519477844</v>
       </c>
       <c r="C291" s="0">
-        <v>0.24027404872899807</v>
+        <v>0.22922239316972676</v>
       </c>
       <c r="D291" s="0">
-        <v>0.11152768577551089</v>
+        <v>0.11091843391029454</v>
       </c>
       <c r="E291" s="0">
-        <v>1.5672181258831956</v>
+        <v>1.5982707899977044</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="12">
+      <c r="A292" s="2">
         <v>43525</v>
       </c>
       <c r="B292" s="0">
-        <v>1.8799513578414919</v>
+        <v>1.8531355857849121</v>
       </c>
       <c r="C292" s="0">
-        <v>0.24012082282484798</v>
+        <v>0.23061254679737414</v>
       </c>
       <c r="D292" s="0">
-        <v>0.11084323903369678</v>
+        <v>0.1106049064075319</v>
       </c>
       <c r="E292" s="0">
-        <v>1.8371654337339673</v>
+        <v>1.8188002497425333</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="12">
+      <c r="A293" s="2">
         <v>43556</v>
       </c>
       <c r="B293" s="0">
-        <v>2.005628108978271</v>
+        <v>1.991788864135742</v>
       </c>
       <c r="C293" s="0">
-        <v>0.2386779710105856</v>
+        <v>0.22972023462121666</v>
       </c>
       <c r="D293" s="0">
-        <v>0.11037612506373672</v>
+        <v>0.11053689611163059</v>
       </c>
       <c r="E293" s="0">
-        <v>1.9452433230110917</v>
+        <v>1.9247395436924803</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="12">
+      <c r="A294" s="2">
         <v>43586</v>
       </c>
       <c r="B294" s="0">
-        <v>1.812747478485107</v>
+        <v>1.7935124635696409</v>
       </c>
       <c r="C294" s="0">
-        <v>0.23842120561544844</v>
+        <v>0.23146871002299679</v>
       </c>
       <c r="D294" s="0">
-        <v>0.1105645272224301</v>
+        <v>0.10982270894611465</v>
       </c>
       <c r="E294" s="0">
-        <v>1.8221293240898755</v>
+        <v>1.7998737995736875</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="12">
+      <c r="A295" s="2">
         <v>43617</v>
       </c>
       <c r="B295" s="0">
-        <v>1.6896424293518071</v>
+        <v>1.6496789455413821</v>
       </c>
       <c r="C295" s="0">
-        <v>0.23843960726555602</v>
+        <v>0.2331710132449078</v>
       </c>
       <c r="D295" s="0">
-        <v>0.11070056074189193</v>
+        <v>0.11000019315053161</v>
       </c>
       <c r="E295" s="0">
-        <v>1.7297821983999788</v>
+        <v>1.6985549698754681</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="12">
+      <c r="A296" s="2">
         <v>43647</v>
       </c>
       <c r="B296" s="0">
-        <v>1.8211607933044429</v>
+        <v>1.779754638671875</v>
       </c>
       <c r="C296" s="0">
-        <v>0.24141481672493964</v>
+        <v>0.23804844908171696</v>
       </c>
       <c r="D296" s="0">
-        <v>0.11045523106350058</v>
+        <v>0.10967444533849156</v>
       </c>
       <c r="E296" s="0">
-        <v>1.7937203076748927</v>
+        <v>1.7641141698935221</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="12">
+      <c r="A297" s="2">
         <v>43678</v>
       </c>
       <c r="B297" s="0">
-        <v>1.759686350822449</v>
+        <v>1.7467788457870479</v>
       </c>
       <c r="C297" s="0">
-        <v>0.24704566857319329</v>
+        <v>0.24502831785619705</v>
       </c>
       <c r="D297" s="0">
-        <v>0.11115682853285036</v>
+        <v>0.11096245228541174</v>
       </c>
       <c r="E297" s="0">
-        <v>1.7639037477202759</v>
+        <v>1.7437599202728256</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="12">
+      <c r="A298" s="2">
         <v>43709</v>
       </c>
       <c r="B298" s="0">
-        <v>1.7273340225219731</v>
+        <v>1.7166092395782471</v>
       </c>
       <c r="C298" s="0">
-        <v>0.25842021863779041</v>
+        <v>0.25332157978443792</v>
       </c>
       <c r="D298" s="0">
-        <v>0.11167878828446519</v>
+        <v>0.11152051189459844</v>
       </c>
       <c r="E298" s="0">
-        <v>1.742599247668644</v>
+        <v>1.7399351339974003</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="12">
+      <c r="A299" s="2">
         <v>43739</v>
       </c>
       <c r="B299" s="0">
-        <v>1.7570822238922119</v>
+        <v>1.769177317619324</v>
       </c>
       <c r="C299" s="0">
-        <v>0.2690046397213558</v>
+        <v>0.26584347767958716</v>
       </c>
       <c r="D299" s="0">
-        <v>0.11260128996506771</v>
+        <v>0.11191446686541681</v>
       </c>
       <c r="E299" s="0">
-        <v>1.79347083875304</v>
+        <v>1.8060394658942844</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="12">
+      <c r="A300" s="2">
         <v>43770</v>
       </c>
       <c r="B300" s="0">
-        <v>2.0308151245117192</v>
+        <v>2.0622084140777588</v>
       </c>
       <c r="C300" s="0">
-        <v>0.28560719025345971</v>
+        <v>0.28287398177165368</v>
       </c>
       <c r="D300" s="0">
-        <v>0.11350992518277186</v>
+        <v>0.1131592725137272</v>
       </c>
       <c r="E300" s="0">
-        <v>2.0200223032717517</v>
+        <v>2.0513432763886561</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="12">
+      <c r="A301" s="2">
         <v>43800</v>
       </c>
       <c r="B301" s="0">
-        <v>2.2617237567901611</v>
+        <v>2.3139884471893311</v>
       </c>
       <c r="C301" s="0">
-        <v>0.30229401219844582</v>
+        <v>0.29766910562357463</v>
       </c>
       <c r="D301" s="0">
-        <v>0.11475257778608254</v>
+        <v>0.11358560686299556</v>
       </c>
       <c r="E301" s="0">
-        <v>2.2418210743166398</v>
+        <v>2.2902668837298323</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="12">
+      <c r="A302" s="2">
         <v>43831</v>
       </c>
       <c r="B302" s="0">
-        <v>2.460492610931396</v>
+        <v>2.500409603118896</v>
       </c>
       <c r="C302" s="0">
-        <v>0.31928446719221837</v>
+        <v>0.314093116427684</v>
       </c>
       <c r="D302" s="0">
-        <v>0.11575103300463915</v>
+        <v>0.114634639897419</v>
       </c>
       <c r="E302" s="0">
-        <v>2.4027538092784151</v>
+        <v>2.4425468966549158</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="12">
+      <c r="A303" s="2">
         <v>43862</v>
       </c>
       <c r="B303" s="0">
-        <v>2.3197085857391362</v>
+        <v>2.3393070697784419</v>
       </c>
       <c r="C303" s="0">
-        <v>0.33980078260058622</v>
+        <v>0.33456950340216035</v>
       </c>
       <c r="D303" s="0">
-        <v>0.1167217819399726</v>
+        <v>0.1154910594370218</v>
       </c>
       <c r="E303" s="0">
-        <v>2.2453947847798847</v>
+        <v>2.2627971769502713</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="12">
+      <c r="A304" s="2">
         <v>43891</v>
       </c>
       <c r="B304" s="0">
-        <v>1.5306437015533449</v>
+        <v>1.5428663492202761</v>
       </c>
       <c r="C304" s="0">
-        <v>0.36463511707010982</v>
+        <v>0.35772741008895154</v>
       </c>
       <c r="D304" s="0">
-        <v>0.11791463353505671</v>
+        <v>0.11689693998813715</v>
       </c>
       <c r="E304" s="0">
-        <v>1.5081331574230801</v>
+        <v>1.5136047799080794</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="12">
+      <c r="A305" s="2">
         <v>43922</v>
       </c>
       <c r="B305" s="0">
-        <v>0.36486473679542542</v>
+        <v>0.34520924091339111</v>
       </c>
       <c r="C305" s="0">
-        <v>0.38104415665646729</v>
+        <v>0.37287152776267452</v>
       </c>
       <c r="D305" s="0">
-        <v>0.11842849577957446</v>
+        <v>0.11809587429020829</v>
       </c>
       <c r="E305" s="0">
-        <v>0.47043125354198212</v>
+        <v>0.45524390295231276</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="12">
+      <c r="A306" s="2">
         <v>43952</v>
       </c>
       <c r="B306" s="0">
-        <v>0.24243740737438199</v>
+        <v>0.2264103293418884</v>
       </c>
       <c r="C306" s="0">
-        <v>0.3827361041665428</v>
+        <v>0.37146040875784092</v>
       </c>
       <c r="D306" s="0">
-        <v>0.11975422974292661</v>
+        <v>0.11794570848611902</v>
       </c>
       <c r="E306" s="0">
-        <v>0.31759574564958193</v>
+        <v>0.3024807399108429</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="12">
+      <c r="A307" s="2">
         <v>43983</v>
       </c>
       <c r="B307" s="0">
-        <v>0.72682130336761475</v>
+        <v>0.71602249145507812</v>
       </c>
       <c r="C307" s="0">
-        <v>0.38805143966812938</v>
+        <v>0.37601675482182145</v>
       </c>
       <c r="D307" s="0">
-        <v>0.11887880503752582</v>
+        <v>0.11666605505928486</v>
       </c>
       <c r="E307" s="0">
-        <v>0.71972987836901581</v>
+        <v>0.70819647431811505</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="12">
+      <c r="A308" s="2">
         <v>44013</v>
       </c>
       <c r="B308" s="0">
-        <v>1.032827496528625</v>
+        <v>1.0141453742980959</v>
       </c>
       <c r="C308" s="0">
-        <v>0.39202721970772825</v>
+        <v>0.37504140839029154</v>
       </c>
       <c r="D308" s="0">
-        <v>0.11892303796702755</v>
+        <v>0.11639221825151669</v>
       </c>
       <c r="E308" s="0">
-        <v>1.0261384656947079</v>
+        <v>1.0073166334983494</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="12">
+      <c r="A309" s="2">
         <v>44044</v>
       </c>
       <c r="B309" s="0">
-        <v>1.327587842941284</v>
+        <v>1.3090813159942629</v>
       </c>
       <c r="C309" s="0">
-        <v>0.39540809323665743</v>
+        <v>0.37508830585171715</v>
       </c>
       <c r="D309" s="0">
-        <v>0.11926303360374801</v>
+        <v>0.11682389075383014</v>
       </c>
       <c r="E309" s="0">
-        <v>1.298969623591594</v>
+        <v>1.2819956226280107</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="12">
+      <c r="A310" s="2">
         <v>44075</v>
       </c>
       <c r="B310" s="0">
-        <v>1.400642991065979</v>
+        <v>1.371483325958252</v>
       </c>
       <c r="C310" s="0">
-        <v>0.39593422023273994</v>
+        <v>0.37755610616080515</v>
       </c>
       <c r="D310" s="0">
-        <v>0.11978516326537947</v>
+        <v>0.11660758538165558</v>
       </c>
       <c r="E310" s="0">
-        <v>1.3730069136357221</v>
+        <v>1.3500824206369995</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="12">
+      <c r="A311" s="2">
         <v>44105</v>
       </c>
       <c r="B311" s="0">
-        <v>1.1841965913772581</v>
+        <v>1.1825437545776369</v>
       </c>
       <c r="C311" s="0">
-        <v>0.40815787708644857</v>
+        <v>0.38313136487177946</v>
       </c>
       <c r="D311" s="0">
-        <v>0.11920863602578334</v>
+        <v>0.11609469770327752</v>
       </c>
       <c r="E311" s="0">
-        <v>1.1968294241614159</v>
+        <v>1.1988184391857755</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="12">
+      <c r="A312" s="2">
         <v>44136</v>
       </c>
       <c r="B312" s="0">
-        <v>1.137762069702148</v>
+        <v>1.1675500869750981</v>
       </c>
       <c r="C312" s="0">
-        <v>0.42227555394701038</v>
+        <v>0.39403554192048063</v>
       </c>
       <c r="D312" s="0">
-        <v>0.12107564406945986</v>
+        <v>0.11662907966971654</v>
       </c>
       <c r="E312" s="0">
-        <v>1.1527251510145837</v>
+        <v>1.1836536882086852</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="12">
+      <c r="A313" s="2">
         <v>44166</v>
       </c>
       <c r="B313" s="0">
-        <v>1.2781524658203121</v>
+        <v>1.322039723396301</v>
       </c>
       <c r="C313" s="0">
-        <v>0.44440313515561053</v>
+        <v>0.41079067395576646</v>
       </c>
       <c r="D313" s="0">
-        <v>0.12136091310318528</v>
+        <v>0.11630042591175424</v>
       </c>
       <c r="E313" s="0">
-        <v>1.278693689401502</v>
+        <v>1.3218322085342655</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="12">
+      <c r="A314" s="2">
         <v>44197</v>
       </c>
       <c r="B314" s="0">
-        <v>1.3599729537963869</v>
+        <v>1.394784092903137</v>
       </c>
       <c r="C314" s="0">
-        <v>0.47172933241197212</v>
+        <v>0.43273208931969931</v>
       </c>
       <c r="D314" s="0">
-        <v>0.12089452180486551</v>
+        <v>0.11737184347242967</v>
       </c>
       <c r="E314" s="0">
-        <v>1.380035485704654</v>
+        <v>1.4168227588269566</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="12">
+      <c r="A315" s="2">
         <v>44228</v>
       </c>
       <c r="B315" s="0">
-        <v>1.675251960754395</v>
+        <v>1.6933649778366091</v>
       </c>
       <c r="C315" s="0">
-        <v>0.50678847843722852</v>
+        <v>0.46214204196498854</v>
       </c>
       <c r="D315" s="0">
-        <v>0.12237662597844123</v>
+        <v>0.11745979425619406</v>
       </c>
       <c r="E315" s="0">
-        <v>1.7181668389113653</v>
+        <v>1.7355884263753909</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="12">
+      <c r="A316" s="2">
         <v>44256</v>
       </c>
       <c r="B316" s="0">
-        <v>2.6583797931671138</v>
+        <v>2.6305220127105708</v>
       </c>
       <c r="C316" s="0">
-        <v>0.54489261064944383</v>
+        <v>0.49616389325073362</v>
       </c>
       <c r="D316" s="0">
-        <v>0.12270906998088546</v>
+        <v>0.11822730503118775</v>
       </c>
       <c r="E316" s="0">
-        <v>2.680259440750115</v>
+        <v>2.6572308830431997</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="12">
+      <c r="A317" s="2">
         <v>44287</v>
       </c>
       <c r="B317" s="0">
-        <v>4.1519894599914551</v>
+        <v>4.1305480003356934</v>
       </c>
       <c r="C317" s="0">
-        <v>0.57687324250638305</v>
+        <v>0.51832470088967697</v>
       </c>
       <c r="D317" s="0">
-        <v>0.12316356186482022</v>
+        <v>0.11838141114349336</v>
       </c>
       <c r="E317" s="0">
-        <v>4.1063985271818018</v>
+        <v>4.0885777366320859</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="12">
+      <c r="A318" s="2">
         <v>44317</v>
       </c>
       <c r="B318" s="0">
-        <v>4.9444403648376456</v>
+        <v>4.9150357246398926</v>
       </c>
       <c r="C318" s="0">
-        <v>0.58517175784356168</v>
+        <v>0.51959783625221856</v>
       </c>
       <c r="D318" s="0">
-        <v>0.12359971562993957</v>
+        <v>0.119613805697478</v>
       </c>
       <c r="E318" s="0">
-        <v>4.894260116453121</v>
+        <v>4.8857693174990819</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B319" s="0">
+        <v>5.2816100120544434</v>
+      </c>
+      <c r="C319" s="0">
+        <v>0.50971646727291198</v>
+      </c>
+      <c r="D319" s="0">
+        <v>0.11900253842022709</v>
+      </c>
+      <c r="E319" s="0">
+        <v>5.253332824016919</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B320" s="0">
+        <v>5.2215023040771484</v>
+      </c>
+      <c r="C320" s="0">
+        <v>0.49840257379872821</v>
+      </c>
+      <c r="D320" s="0">
+        <v>0.11934415833677348</v>
+      </c>
+      <c r="E320" s="0">
+        <v>5.221461026808397</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B321" s="0">
+        <v>5.1882858276367188</v>
+      </c>
+      <c r="C321" s="0">
+        <v>0.49774445649332466</v>
+      </c>
+      <c r="D321" s="0">
+        <v>0.1191446849320711</v>
+      </c>
+      <c r="E321" s="0">
+        <v>5.209527953086182</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B322" s="0">
+        <v>5.3836393356323242</v>
+      </c>
+      <c r="C322" s="0">
+        <v>0.50493844836704571</v>
+      </c>
+      <c r="D322" s="0">
+        <v>0.11993737939787422</v>
+      </c>
+      <c r="E322" s="0">
+        <v>5.4259322507754453</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B323" s="0">
+        <v>6.2377505302429199</v>
+      </c>
+      <c r="C323" s="0">
+        <v>0.52057826880168689</v>
+      </c>
+      <c r="D323" s="0">
+        <v>0.11866929913694829</v>
+      </c>
+      <c r="E323" s="0">
+        <v>6.223414117109531</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B324" s="0">
+        <v>6.8623924255371094</v>
+      </c>
+      <c r="C324" s="0">
+        <v>0.52097082560448393</v>
+      </c>
+      <c r="D324" s="0">
+        <v>0.11929382853057612</v>
+      </c>
+      <c r="E324" s="0">
+        <v>6.844845887648038</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B325" s="0">
+        <v>7.1944546699523926</v>
+      </c>
+      <c r="C325" s="0">
+        <v>0.5160265755653447</v>
+      </c>
+      <c r="D325" s="0">
+        <v>0.1191787668056295</v>
+      </c>
+      <c r="E325" s="0">
+        <v>7.1953268207177086</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B326" s="0">
+        <v>7.5952811241149902</v>
+      </c>
+      <c r="C326" s="0">
+        <v>0.51237330091291389</v>
+      </c>
+      <c r="D326" s="0">
+        <v>0.11960275129649961</v>
+      </c>
+      <c r="E326" s="0">
+        <v>7.5974280798714995</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B327" s="0">
+        <v>7.9548416137695312</v>
+      </c>
+      <c r="C327" s="0">
+        <v>0.50681202851647833</v>
+      </c>
+      <c r="D327" s="0">
+        <v>0.12022471055909767</v>
+      </c>
+      <c r="E327" s="0">
+        <v>7.9628266115283513</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B328" s="0">
+        <v>8.5152101516723633</v>
+      </c>
+      <c r="C328" s="0">
+        <v>0.50324434451177302</v>
+      </c>
+      <c r="D328" s="0">
+        <v>0.12046960090930978</v>
+      </c>
+      <c r="E328" s="0">
+        <v>8.4645992936035341</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B329" s="0">
+        <v>8.2277641296386719</v>
+      </c>
+      <c r="C329" s="0">
+        <v>0.49837597693185698</v>
+      </c>
+      <c r="D329" s="0">
+        <v>0.12095852040891975</v>
+      </c>
+      <c r="E329" s="0">
+        <v>8.2633192160583473</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B330" s="0">
+        <v>8.5023336410522461</v>
+      </c>
+      <c r="C330" s="0">
+        <v>0.49790426340684468</v>
+      </c>
+      <c r="D330" s="0">
+        <v>0.12085323770860704</v>
+      </c>
+      <c r="E330" s="0">
+        <v>8.5091872466599412</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B331" s="0">
+        <v>8.9329891204833984</v>
+      </c>
+      <c r="C331" s="0">
+        <v>0.50093800953332357</v>
+      </c>
+      <c r="D331" s="0">
+        <v>0.12090523990767729</v>
+      </c>
+      <c r="E331" s="0">
+        <v>8.8759289746210115</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B332" s="0">
+        <v>8.4131755828857422</v>
+      </c>
+      <c r="C332" s="0">
+        <v>0.50538076916547214</v>
+      </c>
+      <c r="D332" s="0">
+        <v>0.12192644337918296</v>
+      </c>
+      <c r="E332" s="0">
+        <v>8.4271357645830918</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B333" s="0">
+        <v>8.2273654937744141</v>
+      </c>
+      <c r="C333" s="0">
+        <v>0.50448771432688622</v>
+      </c>
+      <c r="D333" s="0">
+        <v>0.12251450315858831</v>
+      </c>
+      <c r="E333" s="0">
+        <v>8.236258425671398</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B334" s="0">
+        <v>8.214848518371582</v>
+      </c>
+      <c r="C334" s="0">
+        <v>0.51178974130707244</v>
+      </c>
+      <c r="D334" s="0">
+        <v>0.12197992754970619</v>
+      </c>
+      <c r="E334" s="0">
+        <v>8.1867858822124084</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B335" s="0">
+        <v>7.7624912261962891</v>
+      </c>
+      <c r="C335" s="0">
+        <v>0.52816292696181155</v>
+      </c>
+      <c r="D335" s="0">
+        <v>0.1222014837979532</v>
+      </c>
+      <c r="E335" s="0">
+        <v>7.7527230591612559</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B336" s="0">
+        <v>7.1353459358215332</v>
+      </c>
+      <c r="C336" s="0">
+        <v>0.5414909660535614</v>
+      </c>
+      <c r="D336" s="0">
+        <v>0.12304454174399436</v>
+      </c>
+      <c r="E336" s="0">
+        <v>7.1342675174116454</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B337" s="0">
+        <v>6.4449396133422852</v>
+      </c>
+      <c r="C337" s="0">
+        <v>0.55201840573305583</v>
+      </c>
+      <c r="D337" s="0">
+        <v>0.124454767664286</v>
+      </c>
+      <c r="E337" s="0">
+        <v>6.479410225487622</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B338" s="0">
+        <v>6.3471603393554688</v>
+      </c>
+      <c r="C338" s="0">
+        <v>0.55237040622036226</v>
+      </c>
+      <c r="D338" s="0">
+        <v>0.12567028810576339</v>
+      </c>
+      <c r="E338" s="0">
+        <v>6.3327364728743945</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B339" s="0">
+        <v>5.9864468574523926</v>
+      </c>
+      <c r="C339" s="0">
+        <v>0.56490932175757846</v>
+      </c>
+      <c r="D339" s="0">
+        <v>0.12623228547348156</v>
+      </c>
+      <c r="E339" s="0">
+        <v>5.9565365671125594</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B340" s="0">
+        <v>4.9869308471679688</v>
+      </c>
+      <c r="C340" s="0">
+        <v>0.57573704375511991</v>
+      </c>
+      <c r="D340" s="0">
+        <v>0.12577313775953847</v>
+      </c>
+      <c r="E340" s="0">
+        <v>5.0473391739205669</v>
       </c>
     </row>
   </sheetData>
